--- a/data/hotels_by_city/Houston/Houston_shard_463.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_463.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="487">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56427-d2038687-Reviews-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-La-Quinta-Inn-Suites-Pasadena-North.h3470439.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531357594083&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=841c642f-3075-4007-a4ce-059d56a75f13&amp;mctc=9&amp;exp_dp=109.01&amp;exp_ts=1531357594650&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1339 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r601676673-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>2038687</t>
+  </si>
+  <si>
+    <t>601676673</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Only one problem: was not told of early check in policy. All were very thoughtful, considerate &amp; helpful. Room really clean. Service was awesome. Did not get to eat the breakfast, went too early to work.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r591815767-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>591815767</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Amazing stay at La Quinta Pasadena</t>
+  </si>
+  <si>
+    <t>I enjoyed everything about my stay. The staff was friendly and breakfast was delicious. Rooms were very comfortable. There was plenty of parking and the hotel is right next to the highway which makes commutes very easy. Definitely coming back on my next business trip.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r584533724-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>584533724</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The staff was great rooms was clean and I will stay again location of the hotel is in the perfect spot for food and whatever u need Grand Prize BBQ is right down the road so if u want some great bbq then it's the place MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>The staff was great rooms was clean and I will stay again location of the hotel is in the perfect spot for food and whatever u need Grand Prize BBQ is right down the road so if u want some great bbq then it's the place More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r569971829-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>569971829</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Horrible evening staff</t>
+  </si>
+  <si>
+    <t>This guy was too busy hanging out with buddies playing xbox in lobby to do his job. Never at desk - outside smoking. Outside on cell talking about xbox.  AM stafff was great. Breakfast was great, too. Our tub was filthy though. Hotel has a mildew smell.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2018</t>
+  </si>
+  <si>
+    <t>This guy was too busy hanging out with buddies playing xbox in lobby to do his job. Never at desk - outside smoking. Outside on cell talking about xbox.  AM stafff was great. Breakfast was great, too. Our tub was filthy though. Hotel has a mildew smell.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r560055519-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>560055519</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Comfortable and nice</t>
+  </si>
+  <si>
+    <t>Front desk was very welcoming. Gym was fantastic, very clean, and all the machines worked. Room was super comfortable and had pretty good insulation for noise. couldn't really hear anything. Overall, provided a great night's sleep!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Front desk was very welcoming. Gym was fantastic, very clean, and all the machines worked. Room was super comfortable and had pretty good insulation for noise. couldn't really hear anything. Overall, provided a great night's sleep!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r557728489-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>557728489</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded February 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r547865786-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>547865786</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Stay at La quinta</t>
+  </si>
+  <si>
+    <t>We stayed there at La Quinta, the staff was extremely helpful and friendly. The lady at the front desk was helpful and nice. I think her name was Erika? The rooms were clean and the breakfast was good MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2017</t>
+  </si>
+  <si>
+    <t>We stayed there at La Quinta, the staff was extremely helpful and friendly. The lady at the front desk was helpful and nice. I think her name was Erika? The rooms were clean and the breakfast was good More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r526630322-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>526630322</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>excellent stay and great service</t>
+  </si>
+  <si>
+    <t>Workers are all very friendly, and the beds and pillows are comfortable. Breakfast was great including yogurt and cereal but also hot items like sausage and biscuits. It is conveniently located, not far from the toll road. Rooms were clean and always well stocked. Nice pool and exercise room.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r526289043-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>526289043</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Terrific stay - good value - kind staff</t>
+  </si>
+  <si>
+    <t>I travel for work and whenever I am in this area I stay here.  The staff is friendly and some now know me so it feels like a home away from home.  One time I had a special request for extra pillows and blankets and the GM Drew helped me out right away - really went above and beyond.I have stayed at a lot of hotels in different cities (I have probably traveled to 20+ cities for work) but this one feels the best.  I need a good bed to get to sleep and these beds are so comfy that I pass out the moment my head hits the pillow here.It's also refreshing to have a great (hot!) breakfast with bacon, sausage, ham, eggs, biscuits (I splurged and had the gravy, too).  I didn't try them, but the waffles looked amazing, too. There were also juices and yogurts, so something for everyone.Last but not least - I love cookies. So tasty after a long day of meetings. yum!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I travel for work and whenever I am in this area I stay here.  The staff is friendly and some now know me so it feels like a home away from home.  One time I had a special request for extra pillows and blankets and the GM Drew helped me out right away - really went above and beyond.I have stayed at a lot of hotels in different cities (I have probably traveled to 20+ cities for work) but this one feels the best.  I need a good bed to get to sleep and these beds are so comfy that I pass out the moment my head hits the pillow here.It's also refreshing to have a great (hot!) breakfast with bacon, sausage, ham, eggs, biscuits (I splurged and had the gravy, too).  I didn't try them, but the waffles looked amazing, too. There were also juices and yogurts, so something for everyone.Last but not least - I love cookies. So tasty after a long day of meetings. yum!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r511141633-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>511141633</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel in Pasadena, Texas</t>
+  </si>
+  <si>
+    <t>Have been traveling to Pasadena for several months and tried at least 4 other hotels in the area.  First stay at La Quinta Pasadena North in June hooked me.  Erika and Kirk at the front desk always meet us with friendly smiles, remember us from the previous stays, and have gone well beyond "the norm" for accommodating us.  The rooms are clean (thank you Liz) and this hotel has the best breakfast in the area.  I will continue to book at this hotel.  My stays at this hotel are from June 2017 to August 2017.  They offer clean rooms,  free pizza on Tues and Thurs nights, warm cookies in the afternoons,  the nicest staff, and reasonable rates. Their breakfast menu is much more than the "continental" breakfast offering hot items like eggs, sausage, bacon.  The reason this hotel is much better than any others in the area is definitely because of their staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Have been traveling to Pasadena for several months and tried at least 4 other hotels in the area.  First stay at La Quinta Pasadena North in June hooked me.  Erika and Kirk at the front desk always meet us with friendly smiles, remember us from the previous stays, and have gone well beyond "the norm" for accommodating us.  The rooms are clean (thank you Liz) and this hotel has the best breakfast in the area.  I will continue to book at this hotel.  My stays at this hotel are from June 2017 to August 2017.  They offer clean rooms,  free pizza on Tues and Thurs nights, warm cookies in the afternoons,  the nicest staff, and reasonable rates. Their breakfast menu is much more than the "continental" breakfast offering hot items like eggs, sausage, bacon.  The reason this hotel is much better than any others in the area is definitely because of their staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r507019780-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>507019780</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Pasadena la quinta</t>
+  </si>
+  <si>
+    <t>Was on a cross country trip and tried la quinta this trip.  Check in staff was excellent.  Room lacked a vanity mirror in bathroom, bit we encountered this at other "similar" motels.  Rooms wete spacious.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Was on a cross country trip and tried la quinta this trip.  Check in staff was excellent.  Room lacked a vanity mirror in bathroom, bit we encountered this at other "similar" motels.  Rooms wete spacious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r504001074-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>504001074</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Nice stay for over night. Very nice staff</t>
+  </si>
+  <si>
+    <t>Check-in and check-out is very good. Room was very nice and clean. Hotel staff is very nice (5 stars). Location of Hotel is a bit isolated from any businesses. Only one gas station within walking distance, everything else you will need a car. Restaurants are within 1 or 2 miles. The reason for the 4 stars and not 5 stars is due to #1- Location of hotel away from any stores and restaurants. #2- Road construction nearby. #3- Coffee pot located in bathroom (not an appropriate place).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r487754386-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>487754386</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r484182370-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>484182370</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>Perfect 2 Star</t>
+  </si>
+  <si>
+    <t>I arrived around 1am &amp; front desk attendant was excellent and very helpful. The room was really nice &amp; surprisingly quiet for being right off of the 225 hwy. Price was about average for a La Quinta, and we'll definitely stay here again when in the area.Pros:Clean, nice looking roomsComfy bed &amp; pillowsCharging outlet on both nightstands Good WiFiStaffCons:There really weren't anyMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>I arrived around 1am &amp; front desk attendant was excellent and very helpful. The room was really nice &amp; surprisingly quiet for being right off of the 225 hwy. Price was about average for a La Quinta, and we'll definitely stay here again when in the area.Pros:Clean, nice looking roomsComfy bed &amp; pillowsCharging outlet on both nightstands Good WiFiStaffCons:There really weren't anyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r474873729-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>474873729</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Awesome Manager, friendly staff, comfy accommodations</t>
+  </si>
+  <si>
+    <t>Our second time at this hotel.  Same manager.  We travel for work and this is a GREAT place to stay.  The best service.  Beds and room comfy.  Hot breakfast with bacon, sausage or ham; eggs; biscuits and gravy; and waffles.  Other continental breakfast choices including cold cereals, Yoplait yogurt, fruit, milk, juice and coffee.  Best-star rating!  Thank you Manager Mimi for once again making our stay superb!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Our second time at this hotel.  Same manager.  We travel for work and this is a GREAT place to stay.  The best service.  Beds and room comfy.  Hot breakfast with bacon, sausage or ham; eggs; biscuits and gravy; and waffles.  Other continental breakfast choices including cold cereals, Yoplait yogurt, fruit, milk, juice and coffee.  Best-star rating!  Thank you Manager Mimi for once again making our stay superb!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r462394672-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>462394672</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent Place to Stay</t>
+  </si>
+  <si>
+    <t>This is a newer La Quinta on the northside of Pasadena, TX.  Close to our family who live there.  Easy to find and easy to get around in the area.  We have stayed there on two other occasions.  Staff is excellent and friendly.  Definately will stay there many more times in the future when we travel to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>This is a newer La Quinta on the northside of Pasadena, TX.  Close to our family who live there.  Easy to find and easy to get around in the area.  We have stayed there on two other occasions.  Staff is excellent and friendly.  Definately will stay there many more times in the future when we travel to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r455116932-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>455116932</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>Great hotel and great staff</t>
+  </si>
+  <si>
+    <t>This is a great hotel with great staff and the breakfast buffet is outstanding. I will definitely stay here again and I will instruct my employees to utilize the La Quinta brand hotels in their travels for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>This is a great hotel with great staff and the breakfast buffet is outstanding. I will definitely stay here again and I will instruct my employees to utilize the La Quinta brand hotels in their travels for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r449787137-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>449787137</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>unprofessional staff</t>
+  </si>
+  <si>
+    <t>Upon check in staff was too busy on cell phone.   Did not have the requested room type available on check in.   Told that no clean king rooms available and would have to take room with two beds.  Had to put cell phone down several times to help me.   Reported squeaky doors in room - told nothing could be done Told breakfast ended at 10, but when arrived at 930 everything removed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Upon check in staff was too busy on cell phone.   Did not have the requested room type available on check in.   Told that no clean king rooms available and would have to take room with two beds.  Had to put cell phone down several times to help me.   Reported squeaky doors in room - told nothing could be done Told breakfast ended at 10, but when arrived at 930 everything removed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r428942937-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>428942937</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Clean rooms, very friendly staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must give a shout out to Erica, thank you for letting us stay over.  Stacy who works nite shift! Made our stay most enjoyable. Thanks again ladies and you too Mimi general mgr. Housekeeping was most helpful also. Breakfast is nice to have. Lobby is clean as well as the dining area. Be nice if pool is open later but I understand. Thanks again </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r426377313-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>426377313</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Business trip....</t>
+  </si>
+  <si>
+    <t>Excellent place to stay....great rooms, the staff was wonderful..I enjoyed my stay...only thing bad was that there are no restaurants in walking distance....I will stay here again on my next trip to the LaPorte/Padasena area..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r423198345-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>423198345</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>home away from home</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our "extended stay" at this location. The staff was very friendly and welcoming. They respected our privacy while providing great service. Breakfast food was very good and the selection was better than I expected. Pool area was set up well and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed our "extended stay" at this location. The staff was very friendly and welcoming. They respected our privacy while providing great service. Breakfast food was very good and the selection was better than I expected. Pool area was set up well and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r380742984-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>380742984</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>Erica at the front desk was awesome.  Very professional, knowledgeable and helpful.  Cleaning ladies were very nice and efficient.  I would recommend and stay at this hotel again.  Reservations, checking in and out was efficient and quick.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r379250716-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>379250716</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>In spite of the weather (heavy rain), the staff was very friendly and reached out to meet our needs.  Staff was a little confused about pointing to community services and directions to them.  Suggest get more familiar with give directions.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>In spite of the weather (heavy rain), the staff was very friendly and reached out to meet our needs.  Staff was a little confused about pointing to community services and directions to them.  Suggest get more familiar with give directions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r371864613-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>371864613</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>A WOMANS' TOUCH</t>
+  </si>
+  <si>
+    <t>Pasadena North Texas one of my favorite hotels. We are always warmly welcome by th staff and general manager. And what I mean about A WOMANS' TOUCH ......This hotel   with all repect for the general managerwho does an excellent job keeping this hotel VERY CLEAN AND THE ATMOSPHERE SPECIAL; a true sample of excellent hospility. The Tuckers....Give this lady her 5 stars!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded May 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2016</t>
+  </si>
+  <si>
+    <t>Pasadena North Texas one of my favorite hotels. We are always warmly welcome by th staff and general manager. And what I mean about A WOMANS' TOUCH ......This hotel   with all repect for the general managerwho does an excellent job keeping this hotel VERY CLEAN AND THE ATMOSPHERE SPECIAL; a true sample of excellent hospility. The Tuckers....Give this lady her 5 stars!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r359783277-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>359783277</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Very relaxing</t>
+  </si>
+  <si>
+    <t>Very nice hotel, friendly, courteous and helpful staff, lots of amenities, easy access all to places to visit all around Houston. Any issues with the rooms are dealt in a timely manner by the staff so as not to inconvenience the guests in any way.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel, friendly, courteous and helpful staff, lots of amenities, easy access all to places to visit all around Houston. Any issues with the rooms are dealt in a timely manner by the staff so as not to inconvenience the guests in any way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r353168554-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>353168554</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>For the price this hotel was just what we expected. Rooms were nice and clean. Wish they had made the  cookies available more during the day. The free breakfast was a nice addition. Overall I would recommend this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>For the price this hotel was just what we expected. Rooms were nice and clean. Wish they had made the  cookies available more during the day. The free breakfast was a nice addition. Overall I would recommend this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r349052270-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>349052270</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>costumer Ted Ponce</t>
+  </si>
+  <si>
+    <t>Great Hotel, staff and value for the price! The staff is friendly and courteous. The best property in the area. Quick and easy commute to , Close to Work Place Shell Refinery Need to work out  on out side BBQ pit.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r336501967-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>336501967</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>More people working evening not only one person</t>
+  </si>
+  <si>
+    <t>I think that 2 people need to work front desk in the evenings due to so many people checking in the faster it goes the better really should think about that some people hate waiting. The girls in the evening work hard it looks like so when there is 2 its better service. My room was well maintained and excellent front desk people. Just need to improve on that</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r336216113-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>336216113</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>Not for Handicapped</t>
+  </si>
+  <si>
+    <t>No walk in shower in the handicap room I had. The sink and toilet were not clean. The room was too crammed in and not suitable for a wheelchair so I don't know why they call it a room for the handicapped. The only concession made for handicapped is bars in the tub. whoopie</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r336215629-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>336215629</t>
+  </si>
+  <si>
+    <t>12/26/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel for all, but especially those with pets</t>
+  </si>
+  <si>
+    <t>We have stayed at La Quinta Hotels for a number of years.  They all have been very clean and well maintained.  They have all welcomed our two dogs who travel with us (in a small car) on all car vacations.   Taking our dogs with us is taking our family with us. We really love La Quinta, and always look first at La Quinta when making reservations!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r311833686-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>311833686</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>Truly Great Hotel!</t>
+  </si>
+  <si>
+    <t>This was one of the best hotels I have ever been to! The lobby was so colorful and inviting. The room was modern, CLEAN, and very comfortable. My husband and I were quite impressed and will definitely stay here again. The staff was friendly and helpful. GREAT experience!</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r301715307-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>301715307</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>GREAT....as usual!!!</t>
+  </si>
+  <si>
+    <t>I stay in La Quinta hotels twice a calendar year for business, and whenever I can for leisure.      I have NEVER had a problem with any La Quinta I have stayed in.  I VERY HIGHLY recommend La Quinta!!!      The cleanliness, aesthetics, grounds upkeep, breakfast variety makes this hotel chain one of the better ones in the mid-range pricing!!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r299067947-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>299067947</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Softball Stay</t>
+  </si>
+  <si>
+    <t>We stayed for 1 week for Pony League World Series and the only problems we encountered were a shortage of towels and problems with the key card and elevator usage.  Breakfast was excellent, hotel was very clean, air conditioning and internet worked well.  Location is close to chemical refineries that don't make it ideal to stay by.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r291327578-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>291327578</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Very Pleasant Stay</t>
+  </si>
+  <si>
+    <t>We were in the Houston area for the Reliant Houston World Series Dog Show.  According to Trip Advisor, this was the most well reviewed LaQuinta that would allow us to stay on this date using our LaQuinta Reward points.  It appeared this hotel was very recently remodeled.  The location is not the most pleasant - it was in Pasadena/Deer Park near the refineries.Our room was very clean and quiet.  The air conditioner worked well.  We did not eat breakfast but had coffee and it was very weak - that would be our only complaint.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r287359967-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>287359967</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our first stay </t>
+  </si>
+  <si>
+    <t>The stay was awesome. The room was very nice and clean. The check in was also very simple due too online booking. The pool was nice and peaceful! Breakfast served warm and delicious. We will definitely be visiting this place again within the next few months!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r281969220-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>281969220</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>The room was clean and the beds were comfortable.  The key wouldn't work when we got to our room so we had to go back downstairs to have them reset it...and it didn't work again.  It was inconvenient, especially because we got there late at night and were ready to crash.  The front desk staff member came back to the room with us and opened the door for us.  The breakfast was good.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r258702435-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>258702435</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Wi-Fi Terrible</t>
+  </si>
+  <si>
+    <t>Could bot get internet access, not even in lobbly due to slow wi-fi.  The clerk even reset not even reset the server and still limited or no wi-fi service.  I could not even get on with my air card.  So why stay at a hotel where you are there for business and can not access wi-fi.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r259204840-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>259204840</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Sight Seeing in the Houston area</t>
+  </si>
+  <si>
+    <t>Stayed here three nights and have no complaints, room was in great shape. Breakfast was hot food along with the assorted waffles and muffins. Was in the Houston area to see some of the local attractions and this property was located close to most of them. The weather was not the best and the view from my room was of an oil refinery. How ever had ease of access to the freeways during my travels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r257579298-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>257579298</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Pleasant Pre Cruise Stay</t>
+  </si>
+  <si>
+    <t>Spent Valentine's night here before our cruise out of Port of Houston.  A little tricky to find, but clean, comfortable hotel.  Requested room away from highway side, but got it anyway.  Fortunately, noise not a major factor. Hotel was full, but we had no problem getting parking right in front.  Would definitely recommend as a place to spend a night or 2.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r240954900-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>240954900</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>Staff was Great!!!!!!</t>
+  </si>
+  <si>
+    <t>We didn't get to stay at this hotel. We drive a dually w/53' wedge trailer &amp; the parking lot is not designed for any large vehicles. I went inside and talked to the lady at the front desk. Explained our situation and she walked outside with me and looked at our vehicle. Then she went back inside and phoned an La Quinta and we were told it would be better to go to Sam Houston Pkwy location. I will remember this hotel as the landscaping outside was some of the most beautifully done work I have yet to see at a La Quinta. If I visit the Houston area on leisure time,  I would love to give this hotel a try. Thank you so much for the your help. I wish I would have gotten her name. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We didn't get to stay at this hotel. We drive a dually w/53' wedge trailer &amp; the parking lot is not designed for any large vehicles. I went inside and talked to the lady at the front desk. Explained our situation and she walked outside with me and looked at our vehicle. Then she went back inside and phoned an La Quinta and we were told it would be better to go to Sam Houston Pkwy location. I will remember this hotel as the landscaping outside was some of the most beautifully done work I have yet to see at a La Quinta. If I visit the Houston area on leisure time,  I would love to give this hotel a try. Thank you so much for the your help. I wish I would have gotten her name. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r240794289-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>240794289</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Super Service</t>
+  </si>
+  <si>
+    <t>Entrance was welcoming, walkways very clean, rooms comfortable and service was Super. The breakfast was surprisingly awesome. Even had happy hour in the lobby. Check in and Checkout was painless with no surprises.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r237873226-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>237873226</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Excellent for the price</t>
+  </si>
+  <si>
+    <t>Pros: new modern hotel, excellent price, cold air conditioner, comfortable mattress, room has refrigerator and microwave, Internet strength is good, breakfast choices included sausage/bacon/eggs (although quality is standard hotel food), rooms are very quiet. Also just a short drive to Houston.Cons: 1 small elevator, location is between the interstate and chemical plants. Must drive for restaurants. Industrial view.If you want the best bang for your bucks, this is the hotel! Worth staying here and driving into Houston!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r220142208-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>220142208</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Hotel good, service not so much</t>
+  </si>
+  <si>
+    <t>When my husband asked to get an extra pillow for his back, the girl working had to put her cell phone down to ask him what he needed! He was initially told no, that they do not have extras. However when he walked off and said "I guess you won't be getting a good review." We immediately received a call stating they would bring one up right away.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r217913550-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>217913550</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Hidden Gem!</t>
+  </si>
+  <si>
+    <t>After spending week at this property, we consider this hotel is a hidden gem in metro Houston because its proximity to the industrial complexes of Pasadena.  The hotel staff was friendly, pleasant and helpful.  Amenities such as free hot breakfast, free WiFi, and free parking makes this a value for the price in the Houston area. The cleanliness of guest room each day was impressive and unusual among my recent hotel experiences. Food was hot and fresh each morning. For the value, I do not believe there is another hotel in this area that would exceed expectations for the price.  The only drawback is its distance from nearby restaurants.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r215901778-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>215901778</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Bathroom not clean</t>
+  </si>
+  <si>
+    <t>After a long road trip, checked in the room only to find the toilet was not cleaned.  They did however give me another room, but I don't know if I will visit La Quinta again unless I'm forced to.  The desk clerk was apologetic and gave me another room without any problems.  Better over site of the cleaning maids needs to be made.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded August 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2014</t>
+  </si>
+  <si>
+    <t>After a long road trip, checked in the room only to find the toilet was not cleaned.  They did however give me another room, but I don't know if I will visit La Quinta again unless I'm forced to.  The desk clerk was apologetic and gave me another room without any problems.  Better over site of the cleaning maids needs to be made.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r214429891-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>214429891</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>This rate ($75-80) was pre-negotiated for attendees at a convention in Houston.  I have stayed at many hotels in this general price range and this is one of (if not the ) best values I have seen in this price range.  Clean, quiet, everything worked.  The staff was excellent.  This worst thing about our stay was the limited dining options nearby; for good choices we had to drive 4-5 miles.  (I feel like I am stretching to find something not perfect.)  This was a great pace to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r213850202-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>213850202</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>I Stay Here When Working</t>
+  </si>
+  <si>
+    <t>I stay at this hotel as it is the closest to the customer site.  It's a good clean hotel and the staff has always been helpful and polite.  The only downside is there are not many restaurants nearby but that is no fault of the hotel. They have a pool and it's clean and a good place to go and sit and have a cold beverage.  I really have nothing else to say but the program will not allow to post unless there are a minimum of 500 characters and since i already put in the time and effort to check the boxes it seems such a shame to just delete the whole mess so i decided to type this  ridiculous mess just to take up space and make a nice long run on sentence that really says noting and it can't be helpful to trip advisor  of whom i tend to read their reviews quite a bit as i travel alot.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at this hotel as it is the closest to the customer site.  It's a good clean hotel and the staff has always been helpful and polite.  The only downside is there are not many restaurants nearby but that is no fault of the hotel. They have a pool and it's clean and a good place to go and sit and have a cold beverage.  I really have nothing else to say but the program will not allow to post unless there are a minimum of 500 characters and since i already put in the time and effort to check the boxes it seems such a shame to just delete the whole mess so i decided to type this  ridiculous mess just to take up space and make a nice long run on sentence that really says noting and it can't be helpful to trip advisor  of whom i tend to read their reviews quite a bit as i travel alot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r206692651-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>206692651</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Very well appointed hotel</t>
+  </si>
+  <si>
+    <t>We stayed to visit family in Pasadena.  The hotel was nicely appointed and well maintained.  The room was large and very comfortable and had plenty of room for our dog's crate.  We are retired and enjoy travelling with our dog Charlie.  We haven't ever been disappointed staying at a La Quinta.  The view we had was of chemical plants, but that is what Pasadena is all about.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r191621789-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>191621789</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>Holiday Stay</t>
+  </si>
+  <si>
+    <t>Just like to say a belated thank you to all at La Quinta Pasadena for my stay back in November. Special thanks to Erica, she was a star and help us enormously. The hotel was perfectly located for our trips around Houston and surrounding area's.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r189836140-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>189836140</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>Quick stop prior to cruise</t>
+  </si>
+  <si>
+    <t>The hotel was was very clean. Either recently remodeled or just built, could not tell. A couple of things I did not like was that they would not let early check in like most hotels, and after driving all night to get there, not a great thing. The other thing I did not like is that the second bed was a pull out. Not my favorite thing to do is to pull out a bed and make it for the kids. On the positive side, my in-laws did forget there jackets and the hotel was nice enough to keep them until we could get back to get them a week later. They also provide the standard, free breakfast, make your own waffle, fruit etc... If you stay here prior to a cruise, it is about an hour away from Galveston port, not bad if you have your own car. It is also right off the highway, which makes it a great in and out.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>The hotel was was very clean. Either recently remodeled or just built, could not tell. A couple of things I did not like was that they would not let early check in like most hotels, and after driving all night to get there, not a great thing. The other thing I did not like is that the second bed was a pull out. Not my favorite thing to do is to pull out a bed and make it for the kids. On the positive side, my in-laws did forget there jackets and the hotel was nice enough to keep them until we could get back to get them a week later. They also provide the standard, free breakfast, make your own waffle, fruit etc... If you stay here prior to a cruise, it is about an hour away from Galveston port, not bad if you have your own car. It is also right off the highway, which makes it a great in and out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r188802426-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>188802426</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>Absolutely Perfect</t>
+  </si>
+  <si>
+    <t>From the front desk to the housekeeping services,  This La Quinta has it together. Kim at the front desk is A+ and the Manager Mimi is so friendly and nice. We will be going back again for buisnessand look forward to it. If you are in the area this is a must stay place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r181571240-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>181571240</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r178421017-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>178421017</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>From Management to Housekeeping the stay at La Quinta Inn Pasadena, Texas was awesome, great breakfast, polite staff, and very clean room. Two thumbs up and will stay at La Quinta Inn on our next visit to Pasadena, Texas.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r175576416-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>175576416</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Very Nice LaQ</t>
+  </si>
+  <si>
+    <t>Our room was very nice, modern, and clean with unusually high ceilings. The breakfast was good, the location fit the purpose of the trip, and the price was right. Would definitely stay again. As a side note, I definitely recommend a 15 min drive to the Monument Inn for seafood &amp; ship watching.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r167987515-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>167987515</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>Right off the freeway Very clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here one night just driving through.    It's super clean. Has a lot of amenities.  The price was a little steep considering the area.  Overall worth it.  I would recommend short stays might get a little costly if more than a night or two. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r167784197-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>167784197</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Hotel Clean..Restrooms Clean! Great Staff!</t>
+  </si>
+  <si>
+    <t>Hotel clean..restrooms clean! Just the bed sheet was stain.But overall staff were there for any of our needs!! I would definitely come back without a doubt. If you are looking for a hotel that you feel comfortable and get great hospitality this is the place! Would definitely come back! Good Breakfast! Management and staff at its finest! My kids love it!!!!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r164548544-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>164548544</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r160409351-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>160409351</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>very clean and great hotel</t>
+  </si>
+  <si>
+    <t>Stayed for work there in Houston very clean and friendly staff.Was close to the interstate so it was close to everything.Breakfast was good and cookies at the frontdesk every nite is nice.Will stay again..Thanks for everything.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r153256601-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>153256601</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Surprising gem</t>
+  </si>
+  <si>
+    <t>I selected this hotel as I was visiting my daughter and her fiance and they were taking me to NASA Johnson Space Center the next day.  I selected La Quinta for the location, which is about 20 minutes from the Space Center.  I was pleasantly surprised with the hotel - very nice interior - a bit more upscale than I expected.  I booked a room with 2 Queen beds.  Prior to my arrival, I received a call from La Quinta asking if they could upgrade me to a suite at no charge!  The only negative comment I would offer is that the woman at the front desk must have been having a bad day when I checked in.  She was not very friendly nor did she offer me much information.   However, later in the day and the next day, she was very friendly.I selected a room on the second floor to avoid some of the noise that is typical for a ground floor room.  The location is nothing special - off the freeway with a plant of some sort behind it.  There was a fair amount of noise from the plant during the night as trucks entered and exited, but I used ear plugs.The room and bathroom was very clean and in excellent repair.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I selected this hotel as I was visiting my daughter and her fiance and they were taking me to NASA Johnson Space Center the next day.  I selected La Quinta for the location, which is about 20 minutes from the Space Center.  I was pleasantly surprised with the hotel - very nice interior - a bit more upscale than I expected.  I booked a room with 2 Queen beds.  Prior to my arrival, I received a call from La Quinta asking if they could upgrade me to a suite at no charge!  The only negative comment I would offer is that the woman at the front desk must have been having a bad day when I checked in.  She was not very friendly nor did she offer me much information.   However, later in the day and the next day, she was very friendly.I selected a room on the second floor to avoid some of the noise that is typical for a ground floor room.  The location is nothing special - off the freeway with a plant of some sort behind it.  There was a fair amount of noise from the plant during the night as trucks entered and exited, but I used ear plugs.The room and bathroom was very clean and in excellent repair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r150729801-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>150729801</t>
+  </si>
+  <si>
+    <t>01/27/2013</t>
+  </si>
+  <si>
+    <t>Very nice place!</t>
+  </si>
+  <si>
+    <t>I brought my son to Houston for the weekend and this is where we stayed. The place is new and very nice. I would definitely come back and stay here again. They have cookies available at the reception desk. They were really good!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r132997812-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>132997812</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r132073597-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>132073597</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>Very nice hotel.  They had my reservations ready when we arrived room was clean and nice.  plenty of towels in bathroom and clean and nice pool area.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2012</t>
+  </si>
+  <si>
+    <t>Very nice hotel.  They had my reservations ready when we arrived room was clean and nice.  plenty of towels in bathroom and clean and nice pool area.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r131104930-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>131104930</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>Excellent staff!</t>
+  </si>
+  <si>
+    <t>I left my iPad (unknowingly) in their conference room and as soon as I called they went looking for it and had the manager ship it to me from a FedEx within an hour. They even called me from the FedEx and gave me the tracking number for my package. Excellent service from employees with integrity!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I left my iPad (unknowingly) in their conference room and as soon as I called they went looking for it and had the manager ship it to me from a FedEx within an hour. They even called me from the FedEx and gave me the tracking number for my package. Excellent service from employees with integrity!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r125460150-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>125460150</t>
+  </si>
+  <si>
+    <t>03/01/2012</t>
+  </si>
+  <si>
+    <t>No serve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here the end of Feb. I had booked one king bed for one night. When we checked in they had us booked for two rooms. The lady at the desk was rude that we only need one room. Showed her the conformation for one room. She just gavel the "what ever" look. The room was clean. The next day for breakfast we go there at 6:10. There was a spoon full of eggs left and a sign that they were out oh sausage. The bread for toast was hard as a rock and the butter was frozen hard. The table had old syrup stuck on it. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r123847374-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>123847374</t>
+  </si>
+  <si>
+    <t>01/30/2012</t>
+  </si>
+  <si>
+    <t>Much better than average La Quinta</t>
+  </si>
+  <si>
+    <t>We stayed at the La Quinta Pasadena North recently and were very pleasantly surprised by the Inn's quality. We're members of La Quinta's Member Rewards program and stay frequently in their hotels in many states all across the Southwest, West, and Pacific Northwest. Something like maybe about 25% of those are corporate owned &amp; operated, and the rest are franchises. Our experience is that the franchises are almost always operated and maintained much more poorly than the corporate locations. Many of them are just awful. But not this franchise unit, it is the equal or better of many of the corporate-owned units.
+It has the nicest, best furnished, most spacious lobby of any La Quinta I've ever seen.... and I've even stayed in one of their so-called "resorts".This one is the equivalent of some up-scale hotels in many respects. The front desk staff, a lady named Tiffany (sp?), was very friendly, helpful, professional, quick, and accomodating. 
+It's located between a freeway and chemical plants along the Houston Ship Channel and primarily draws business travelers. The hotel appears to be new or has been recently completely refurbished in and out, and is thankfully non-smoking and smelled fresh throughout. The berber carpets in rooms and hallways are clean and unworn. The room, an executive king suite, was very attractive with dark wood paneling, matching furnishing and lamps, and tasteful complimentary wall art. Marble counter tops throughout. Lots of surplus towels in the...We stayed at the La Quinta Pasadena North recently and were very pleasantly surprised by the Inn's quality. We're members of La Quinta's Member Rewards program and stay frequently in their hotels in many states all across the Southwest, West, and Pacific Northwest. Something like maybe about 25% of those are corporate owned &amp; operated, and the rest are franchises. Our experience is that the franchises are almost always operated and maintained much more poorly than the corporate locations. Many of them are just awful. But not this franchise unit, it is the equal or better of many of the corporate-owned units.It has the nicest, best furnished, most spacious lobby of any La Quinta I've ever seen.... and I've even stayed in one of their so-called "resorts".This one is the equivalent of some up-scale hotels in many respects. The front desk staff, a lady named Tiffany (sp?), was very friendly, helpful, professional, quick, and accomodating. It's located between a freeway and chemical plants along the Houston Ship Channel and primarily draws business travelers. The hotel appears to be new or has been recently completely refurbished in and out, and is thankfully non-smoking and smelled fresh throughout. The berber carpets in rooms and hallways are clean and unworn. The room, an executive king suite, was very attractive with dark wood paneling, matching furnishing and lamps, and tasteful complimentary wall art. Marble counter tops throughout. Lots of surplus towels in the bath, which was also marble lined. A large HDTV also. Although we didn't eat the free breakfast we did go through and look at the offerings. Very well-stocked with most breakfast items that people want... and there was that hotel breakfast rarity, meat too.. Just surprising that a franchise hotel would put so much expense into providing a more upscale environment than is usual in lower-to-mid-tier hotels. BUT, there were some negatives, some surprising. For instance, there are only basic, analog TV channels provided, no HDTV or premium channels that would be found in lower scale hotels. An odd economy. The room coffee maker was one of those irritating single-cup makers. Another odd economy. The modern desk swivel armchair was unusable, permanently stuck in a fully back-reclined position.  The toilet handle required jiggling to stop a constant water flow. All relatively minor issues. But one issue was more aggravating. We were on the 3rd floor, and water pressure was VERY low, and it took an extremely long time to get warm water which never got hot. But low pressure couldn't be the only reason that it took soooo long to get any warm water. The only likely reason for that is the hotel isn't running their hot water circulating pump that all hotels have to run to insure quick availability of hot water in all rooms. Another odd economy, given that so much water is wasted waiting for it to try to get it hot.All in all, the hotel is much nicer than expected for it's brand and location, and has excellent staff. The owner obviously spends more than just what's required to operate and maintain a quality inn. Will likely have reason to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>We stayed at the La Quinta Pasadena North recently and were very pleasantly surprised by the Inn's quality. We're members of La Quinta's Member Rewards program and stay frequently in their hotels in many states all across the Southwest, West, and Pacific Northwest. Something like maybe about 25% of those are corporate owned &amp; operated, and the rest are franchises. Our experience is that the franchises are almost always operated and maintained much more poorly than the corporate locations. Many of them are just awful. But not this franchise unit, it is the equal or better of many of the corporate-owned units.
+It has the nicest, best furnished, most spacious lobby of any La Quinta I've ever seen.... and I've even stayed in one of their so-called "resorts".This one is the equivalent of some up-scale hotels in many respects. The front desk staff, a lady named Tiffany (sp?), was very friendly, helpful, professional, quick, and accomodating. 
+It's located between a freeway and chemical plants along the Houston Ship Channel and primarily draws business travelers. The hotel appears to be new or has been recently completely refurbished in and out, and is thankfully non-smoking and smelled fresh throughout. The berber carpets in rooms and hallways are clean and unworn. The room, an executive king suite, was very attractive with dark wood paneling, matching furnishing and lamps, and tasteful complimentary wall art. Marble counter tops throughout. Lots of surplus towels in the...We stayed at the La Quinta Pasadena North recently and were very pleasantly surprised by the Inn's quality. We're members of La Quinta's Member Rewards program and stay frequently in their hotels in many states all across the Southwest, West, and Pacific Northwest. Something like maybe about 25% of those are corporate owned &amp; operated, and the rest are franchises. Our experience is that the franchises are almost always operated and maintained much more poorly than the corporate locations. Many of them are just awful. But not this franchise unit, it is the equal or better of many of the corporate-owned units.It has the nicest, best furnished, most spacious lobby of any La Quinta I've ever seen.... and I've even stayed in one of their so-called "resorts".This one is the equivalent of some up-scale hotels in many respects. The front desk staff, a lady named Tiffany (sp?), was very friendly, helpful, professional, quick, and accomodating. It's located between a freeway and chemical plants along the Houston Ship Channel and primarily draws business travelers. The hotel appears to be new or has been recently completely refurbished in and out, and is thankfully non-smoking and smelled fresh throughout. The berber carpets in rooms and hallways are clean and unworn. The room, an executive king suite, was very attractive with dark wood paneling, matching furnishing and lamps, and tasteful complimentary wall art. Marble counter tops throughout. Lots of surplus towels in the bath, which was also marble lined. A large HDTV also. Although we didn't eat the free breakfast we did go through and look at the offerings. Very well-stocked with most breakfast items that people want... and there was that hotel breakfast rarity, meat too.. Just surprising that a franchise hotel would put so much expense into providing a more upscale environment than is usual in lower-to-mid-tier hotels. BUT, there were some negatives, some surprising. For instance, there are only basic, analog TV channels provided, no HDTV or premium channels that would be found in lower scale hotels. An odd economy. The room coffee maker was one of those irritating single-cup makers. Another odd economy. The modern desk swivel armchair was unusable, permanently stuck in a fully back-reclined position.  The toilet handle required jiggling to stop a constant water flow. All relatively minor issues. But one issue was more aggravating. We were on the 3rd floor, and water pressure was VERY low, and it took an extremely long time to get warm water which never got hot. But low pressure couldn't be the only reason that it took soooo long to get any warm water. The only likely reason for that is the hotel isn't running their hot water circulating pump that all hotels have to run to insure quick availability of hot water in all rooms. Another odd economy, given that so much water is wasted waiting for it to try to get it hot.All in all, the hotel is much nicer than expected for it's brand and location, and has excellent staff. The owner obviously spends more than just what's required to operate and maintain a quality inn. Will likely have reason to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r116484156-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>116484156</t>
+  </si>
+  <si>
+    <t>08/09/2011</t>
+  </si>
+  <si>
+    <t>Best hotel in Pasadena</t>
+  </si>
+  <si>
+    <t>So my husband and i bought a home near Nasa &amp; while it was being remodeled/painted etc, we needed a place to stay for two nights untill they'ed finished up our home. I deffenetly wanted to stay at the new La Quinta in Pasadena despite there being a "closer" hotel near my home, we insisted to try it out.  As we walked in the hotel the  Decor was amazing/modern/spacious/beutiful. Our room had nice high cealings and it was very clean. The staff was great, helpfull and friendly. Now the BEST part of it all was the breakfast. Waow! they go out alllll the way. My family had a FULL breakfast that morning something that other hotels dont have. Awsome stay, cannot complain one-bit!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>So my husband and i bought a home near Nasa &amp; while it was being remodeled/painted etc, we needed a place to stay for two nights untill they'ed finished up our home. I deffenetly wanted to stay at the new La Quinta in Pasadena despite there being a "closer" hotel near my home, we insisted to try it out.  As we walked in the hotel the  Decor was amazing/modern/spacious/beutiful. Our room had nice high cealings and it was very clean. The staff was great, helpfull and friendly. Now the BEST part of it all was the breakfast. Waow! they go out alllll the way. My family had a FULL breakfast that morning something that other hotels dont have. Awsome stay, cannot complain one-bit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r61870216-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>61870216</t>
+  </si>
+  <si>
+    <t>04/18/2010</t>
+  </si>
+  <si>
+    <t>Great hotel, exceptional service</t>
+  </si>
+  <si>
+    <t>As soon as I arrived, I was met with friendly service. The hotel is brand new with beautiful landscaping and decor.The bed was extremely comfortable. Has nice gym with freeweights and treadmill. Bathroom has lotions, shampoos, tons of towels. Room had fridge and microwave. The a/c had wall mount controls, worked well. I found the room to be spacious with nice furniture.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1874,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1906,4508 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" t="s">
+        <v>192</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J22" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>219</v>
+      </c>
+      <c r="X24" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>227</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>236</v>
+      </c>
+      <c r="X26" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>244</v>
+      </c>
+      <c r="O27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>236</v>
+      </c>
+      <c r="X27" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>258</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>260</v>
+      </c>
+      <c r="J30" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s">
+        <v>258</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>265</v>
+      </c>
+      <c r="J31" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>257</v>
+      </c>
+      <c r="O31" t="s">
+        <v>269</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s">
+        <v>286</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>287</v>
+      </c>
+      <c r="O34" t="s">
+        <v>192</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>289</v>
+      </c>
+      <c r="J35" t="s">
+        <v>290</v>
+      </c>
+      <c r="K35" t="s">
+        <v>291</v>
+      </c>
+      <c r="L35" t="s">
+        <v>292</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>287</v>
+      </c>
+      <c r="O35" t="s">
+        <v>269</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" t="s">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>287</v>
+      </c>
+      <c r="O36" t="s">
+        <v>269</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>299</v>
+      </c>
+      <c r="J37" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" t="s">
+        <v>301</v>
+      </c>
+      <c r="L37" t="s">
+        <v>302</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>303</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>311</v>
+      </c>
+      <c r="J39" t="s">
+        <v>312</v>
+      </c>
+      <c r="K39" t="s">
+        <v>313</v>
+      </c>
+      <c r="L39" t="s">
+        <v>314</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s">
+        <v>258</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>315</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J40" t="s">
+        <v>317</v>
+      </c>
+      <c r="K40" t="s">
+        <v>318</v>
+      </c>
+      <c r="L40" t="s">
+        <v>319</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>320</v>
+      </c>
+      <c r="O40" t="s">
+        <v>269</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>322</v>
+      </c>
+      <c r="J41" t="s">
+        <v>323</v>
+      </c>
+      <c r="K41" t="s">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>326</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>328</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" t="s">
+        <v>330</v>
+      </c>
+      <c r="K42" t="s">
+        <v>331</v>
+      </c>
+      <c r="L42" t="s">
+        <v>332</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>326</v>
+      </c>
+      <c r="O42" t="s">
+        <v>192</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>334</v>
+      </c>
+      <c r="J43" t="s">
+        <v>335</v>
+      </c>
+      <c r="K43" t="s">
+        <v>336</v>
+      </c>
+      <c r="L43" t="s">
+        <v>337</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>326</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>338</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>339</v>
+      </c>
+      <c r="J44" t="s">
+        <v>340</v>
+      </c>
+      <c r="K44" t="s">
+        <v>341</v>
+      </c>
+      <c r="L44" t="s">
+        <v>342</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>343</v>
+      </c>
+      <c r="O44" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>344</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>345</v>
+      </c>
+      <c r="J45" t="s">
+        <v>346</v>
+      </c>
+      <c r="K45" t="s">
+        <v>347</v>
+      </c>
+      <c r="L45" t="s">
+        <v>348</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>349</v>
+      </c>
+      <c r="O45" t="s">
+        <v>92</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>350</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>351</v>
+      </c>
+      <c r="J46" t="s">
+        <v>352</v>
+      </c>
+      <c r="K46" t="s">
+        <v>353</v>
+      </c>
+      <c r="L46" t="s">
+        <v>354</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>355</v>
+      </c>
+      <c r="X46" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>358</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>359</v>
+      </c>
+      <c r="J47" t="s">
+        <v>360</v>
+      </c>
+      <c r="K47" t="s">
+        <v>361</v>
+      </c>
+      <c r="L47" t="s">
+        <v>362</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>349</v>
+      </c>
+      <c r="O47" t="s">
+        <v>92</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>363</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>364</v>
+      </c>
+      <c r="J48" t="s">
+        <v>365</v>
+      </c>
+      <c r="K48" t="s">
+        <v>366</v>
+      </c>
+      <c r="L48" t="s">
+        <v>367</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>349</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>369</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>370</v>
+      </c>
+      <c r="J49" t="s">
+        <v>371</v>
+      </c>
+      <c r="K49" t="s">
+        <v>372</v>
+      </c>
+      <c r="L49" t="s">
+        <v>373</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>374</v>
+      </c>
+      <c r="O49" t="s">
+        <v>92</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>376</v>
+      </c>
+      <c r="J50" t="s">
+        <v>377</v>
+      </c>
+      <c r="K50" t="s">
+        <v>378</v>
+      </c>
+      <c r="L50" t="s">
+        <v>379</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>380</v>
+      </c>
+      <c r="O50" t="s">
+        <v>258</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>381</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>382</v>
+      </c>
+      <c r="J51" t="s">
+        <v>383</v>
+      </c>
+      <c r="K51" t="s">
+        <v>384</v>
+      </c>
+      <c r="L51" t="s">
+        <v>385</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>386</v>
+      </c>
+      <c r="O51" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>388</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>389</v>
+      </c>
+      <c r="J52" t="s">
+        <v>390</v>
+      </c>
+      <c r="K52" t="s">
+        <v>391</v>
+      </c>
+      <c r="L52" t="s">
+        <v>392</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>380</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>393</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>394</v>
+      </c>
+      <c r="J53" t="s">
+        <v>395</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>386</v>
+      </c>
+      <c r="O53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>396</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>397</v>
+      </c>
+      <c r="J54" t="s">
+        <v>398</v>
+      </c>
+      <c r="K54" t="s">
+        <v>399</v>
+      </c>
+      <c r="L54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>401</v>
+      </c>
+      <c r="O54" t="s">
+        <v>92</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>402</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>403</v>
+      </c>
+      <c r="J55" t="s">
+        <v>404</v>
+      </c>
+      <c r="K55" t="s">
+        <v>405</v>
+      </c>
+      <c r="L55" t="s">
+        <v>406</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>407</v>
+      </c>
+      <c r="O55" t="s">
+        <v>269</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>408</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>409</v>
+      </c>
+      <c r="J56" t="s">
+        <v>410</v>
+      </c>
+      <c r="K56" t="s">
+        <v>411</v>
+      </c>
+      <c r="L56" t="s">
+        <v>412</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>413</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>414</v>
+      </c>
+      <c r="J57" t="s">
+        <v>415</v>
+      </c>
+      <c r="K57" t="s">
+        <v>416</v>
+      </c>
+      <c r="L57" t="s">
+        <v>417</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>418</v>
+      </c>
+      <c r="O57" t="s">
+        <v>92</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>419</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>420</v>
+      </c>
+      <c r="J58" t="s">
+        <v>421</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>422</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>423</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>424</v>
+      </c>
+      <c r="J59" t="s">
+        <v>425</v>
+      </c>
+      <c r="K59" t="s">
+        <v>426</v>
+      </c>
+      <c r="L59" t="s">
+        <v>427</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>428</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>429</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>430</v>
+      </c>
+      <c r="J60" t="s">
+        <v>431</v>
+      </c>
+      <c r="K60" t="s">
+        <v>432</v>
+      </c>
+      <c r="L60" t="s">
+        <v>433</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>434</v>
+      </c>
+      <c r="O60" t="s">
+        <v>92</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>436</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>437</v>
+      </c>
+      <c r="J61" t="s">
+        <v>438</v>
+      </c>
+      <c r="K61" t="s">
+        <v>439</v>
+      </c>
+      <c r="L61" t="s">
+        <v>440</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>441</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>442</v>
+      </c>
+      <c r="J62" t="s">
+        <v>443</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s">
+        <v>90</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>444</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>445</v>
+      </c>
+      <c r="X62" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>447</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J63" t="s">
+        <v>449</v>
+      </c>
+      <c r="K63" t="s">
+        <v>450</v>
+      </c>
+      <c r="L63" t="s">
+        <v>451</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>444</v>
+      </c>
+      <c r="O63" t="s">
+        <v>92</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>452</v>
+      </c>
+      <c r="X63" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>455</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>456</v>
+      </c>
+      <c r="J64" t="s">
+        <v>457</v>
+      </c>
+      <c r="K64" t="s">
+        <v>458</v>
+      </c>
+      <c r="L64" t="s">
+        <v>459</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>460</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>452</v>
+      </c>
+      <c r="X64" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>462</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>463</v>
+      </c>
+      <c r="J65" t="s">
+        <v>464</v>
+      </c>
+      <c r="K65" t="s">
+        <v>465</v>
+      </c>
+      <c r="L65" t="s">
+        <v>466</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>467</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>468</v>
+      </c>
+      <c r="J66" t="s">
+        <v>469</v>
+      </c>
+      <c r="K66" t="s">
+        <v>470</v>
+      </c>
+      <c r="L66" t="s">
+        <v>471</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>472</v>
+      </c>
+      <c r="O66" t="s">
+        <v>192</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>474</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>475</v>
+      </c>
+      <c r="J67" t="s">
+        <v>476</v>
+      </c>
+      <c r="K67" t="s">
+        <v>477</v>
+      </c>
+      <c r="L67" t="s">
+        <v>478</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>479</v>
+      </c>
+      <c r="O67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>481</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>482</v>
+      </c>
+      <c r="J68" t="s">
+        <v>483</v>
+      </c>
+      <c r="K68" t="s">
+        <v>484</v>
+      </c>
+      <c r="L68" t="s">
+        <v>485</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>486</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_463.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_463.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="754">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,33 +150,84 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r601676903-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>2038687</t>
+  </si>
+  <si>
+    <t>601676903</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Very bad experience</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to anyone very poor service and bad staff. My television and phone did not work. I asked for a discount and the morning staff member had a very bad additude about it saying she could not get ahold of her managerMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded August 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2018</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to anyone very poor service and bad staff. My television and phone did not work. I asked for a discount and the morning staff member had a very bad additude about it saying she could not get ahold of her managerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r587801139-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>587801139</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Pasadena inn &amp; suites</t>
+  </si>
+  <si>
+    <t>This hotel is near my sister’s house. It’s very clean and the breakfast includes scrambled eggs and sausage one day we were there and the second day it was scrambled eggs, sausage, biscuits and gray.  Of course they also had waffles and cereal.   The room was very clean and the staff is very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is near my sister’s house. It’s very clean and the breakfast includes scrambled eggs and sausage one day we were there and the second day it was scrambled eggs, sausage, biscuits and gray.  Of course they also had waffles and cereal.   The room was very clean and the staff is very nice.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r601676673-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
-    <t>56427</t>
-  </si>
-  <si>
-    <t>2038687</t>
-  </si>
-  <si>
     <t>601676673</t>
   </si>
   <si>
-    <t>07/31/2018</t>
-  </si>
-  <si>
     <t>Welcome</t>
   </si>
   <si>
     <t>Only one problem: was not told of early check in policy. All were very thoughtful, considerate &amp; helpful. Room really clean. Service was awesome. Did not get to eat the breakfast, went too early to work.</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -195,9 +246,6 @@
     <t>I enjoyed everything about my stay. The staff was friendly and breakfast was delicious. Rooms were very comfortable. There was plenty of parking and the hotel is right next to the highway which makes commutes very easy. Definitely coming back on my next business trip.</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r584533724-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -216,39 +264,75 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded June 18, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 18, 2018</t>
-  </si>
-  <si>
     <t>The staff was great rooms was clean and I will stay again location of the hotel is in the perfect spot for food and whatever u need Grand Prize BBQ is right down the road so if u want some great bbq then it's the place More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r571819461-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>571819461</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>stinkadena</t>
+  </si>
+  <si>
+    <t>I liked the clerk on Thursday shift -she loved on my dogs, and gave me some change for coke machine.  real pleasant gal.  but the other gals on next shift were rude, and never smiled.  room could have been cleaned better and radio should have been plugged in - then light switch cover fell off when I tried to plug in.  but, I stay here a lot because it has nice place for dogs to go pottie - out back huge grassy area.  great for dogs.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Andrew L, Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded April 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2018</t>
+  </si>
+  <si>
+    <t>I liked the clerk on Thursday shift -she loved on my dogs, and gave me some change for coke machine.  real pleasant gal.  but the other gals on next shift were rude, and never smiled.  room could have been cleaned better and radio should have been plugged in - then light switch cover fell off when I tried to plug in.  but, I stay here a lot because it has nice place for dogs to go pottie - out back huge grassy area.  great for dogs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r569989247-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>569989247</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Good place</t>
+  </si>
+  <si>
+    <t>If you have a change stay here Andrew will take care of you , enjoyed my stay got great sleep , and good brekfast a small issue came up but they reacted quick and got all the concerns addressed and the trip was great MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2018</t>
+  </si>
+  <si>
+    <t>If you have a change stay here Andrew will take care of you , enjoyed my stay got great sleep , and good brekfast a small issue came up but they reacted quick and got all the concerns addressed and the trip was great More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r569971829-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
     <t>569971829</t>
   </si>
   <si>
-    <t>03/31/2018</t>
-  </si>
-  <si>
     <t>Horrible evening staff</t>
   </si>
   <si>
     <t>This guy was too busy hanging out with buddies playing xbox in lobby to do his job. Never at desk - outside smoking. Outside on cell talking about xbox.  AM stafff was great. Breakfast was great, too. Our tub was filthy though. Hotel has a mildew smell.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded April 1, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 1, 2018</t>
-  </si>
-  <si>
     <t>This guy was too busy hanging out with buddies playing xbox in lobby to do his job. Never at desk - outside smoking. Outside on cell talking about xbox.  AM stafff was great. Breakfast was great, too. Our tub was filthy though. Hotel has a mildew smell.More</t>
   </si>
   <si>
@@ -294,9 +378,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded February 3, 2018</t>
   </si>
   <si>
@@ -306,6 +387,42 @@
     <t>More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r548092030-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>548092030</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey Survivor</t>
+  </si>
+  <si>
+    <t>Id like to thank all my new friends at Laquinta. Erica, Andrew, Ken, Gina, Jackie, Sharon and Samantha. I was able to make it thru a horrible and stressful time of my life becauae of the awesome staff. They made me feel like family. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Id like to thank all my new friends at Laquinta. Erica, Andrew, Ken, Gina, Jackie, Sharon and Samantha. I was able to make it thru a horrible and stressful time of my life becauae of the awesome staff. They made me feel like family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r548090103-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>548090103</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r547865786-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -321,9 +438,6 @@
     <t>We stayed there at La Quinta, the staff was extremely helpful and friendly. The lady at the front desk was helpful and nice. I think her name was Erika? The rooms were clean and the breakfast was good MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>Andrew L, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded December 19, 2017</t>
   </si>
   <si>
@@ -372,6 +486,48 @@
     <t>I travel for work and whenever I am in this area I stay here.  The staff is friendly and some now know me so it feels like a home away from home.  One time I had a special request for extra pillows and blankets and the GM Drew helped me out right away - really went above and beyond.I have stayed at a lot of hotels in different cities (I have probably traveled to 20+ cities for work) but this one feels the best.  I need a good bed to get to sleep and these beds are so comfy that I pass out the moment my head hits the pillow here.It's also refreshing to have a great (hot!) breakfast with bacon, sausage, ham, eggs, biscuits (I splurged and had the gravy, too).  I didn't try them, but the waffles looked amazing, too. There were also juices and yogurts, so something for everyone.Last but not least - I love cookies. So tasty after a long day of meetings. yum!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r525756349-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>525756349</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband and I are extremely blessed to have found a room at this location for our stay for renovation of our home due to Hurricane Harvey.  Erica, has made our stay here a lot easier for us.  She continues to go above and beyond in making sure we are comfortable.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r511277592-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>511277592</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Great as always</t>
+  </si>
+  <si>
+    <t>Enjiyed my stay here. Haven't stayed at a LaQuinta I haven't lilies yet. The breakfast was nice and fresh. Room nice and clean. This place also erves cookies at 4, for those traveling with family and your children like snacksMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Enjiyed my stay here. Haven't stayed at a LaQuinta I haven't lilies yet. The breakfast was nice and fresh. Room nice and clean. This place also erves cookies at 4, for those traveling with family and your children like snacksMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r511141633-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -390,12 +546,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded August 15, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 15, 2017</t>
-  </si>
-  <si>
     <t>Have been traveling to Pasadena for several months and tried at least 4 other hotels in the area.  First stay at La Quinta Pasadena North in June hooked me.  Erika and Kirk at the front desk always meet us with friendly smiles, remember us from the previous stays, and have gone well beyond "the norm" for accommodating us.  The rooms are clean (thank you Liz) and this hotel has the best breakfast in the area.  I will continue to book at this hotel.  My stays at this hotel are from June 2017 to August 2017.  They offer clean rooms,  free pizza on Tues and Thurs nights, warm cookies in the afternoons,  the nicest staff, and reasonable rates. Their breakfast menu is much more than the "continental" breakfast offering hot items like eggs, sausage, bacon.  The reason this hotel is much better than any others in the area is definitely because of their staff.More</t>
   </si>
   <si>
@@ -438,6 +588,39 @@
     <t>Check-in and check-out is very good. Room was very nice and clean. Hotel staff is very nice (5 stars). Location of Hotel is a bit isolated from any businesses. Only one gas station within walking distance, everything else you will need a car. Restaurants are within 1 or 2 miles. The reason for the 4 stars and not 5 stars is due to #1- Location of hotel away from any stores and restaurants. #2- Road construction nearby. #3- Coffee pot located in bathroom (not an appropriate place).</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r502601056-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>502601056</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>I picked this location based on the reviews of others, but I was sadly disappointed.  The location was ok, the room was nice but we had several issues that caused frustration.  First after the first night, housekeeping failed to provide us with towels so I had to ask at the front desk...no big deal really.  Then, when we came back for dinner and I had asked the clerk for towels we were told that the elevator was acting "funny" and to take the stairs...saw no sign posted on the elevator however.  Then, at 2:30 am I wake up to find water all over the bathroom floor...thinking it was a leak from the toliet, I threw a towel on the floor deciding to tell the front desk upon checkout.  At 8 am I go to take a shower and there's water pouring from around the light fixture in the ceiling!  Called the front desk and they said they would check on the room above us to see what was going on.  Upon checking out, I asked about the leak and I got something about someone working on the sink the day before...I explained that we couldn't even use the toilet because that's where the water was landing (I guess that would have been good if I wanted to multi-task) and she said the manager had been notified.  What good did that do me?  We won't be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>I picked this location based on the reviews of others, but I was sadly disappointed.  The location was ok, the room was nice but we had several issues that caused frustration.  First after the first night, housekeeping failed to provide us with towels so I had to ask at the front desk...no big deal really.  Then, when we came back for dinner and I had asked the clerk for towels we were told that the elevator was acting "funny" and to take the stairs...saw no sign posted on the elevator however.  Then, at 2:30 am I wake up to find water all over the bathroom floor...thinking it was a leak from the toliet, I threw a towel on the floor deciding to tell the front desk upon checkout.  At 8 am I go to take a shower and there's water pouring from around the light fixture in the ceiling!  Called the front desk and they said they would check on the room above us to see what was going on.  Upon checking out, I asked about the leak and I got something about someone working on the sink the day before...I explained that we couldn't even use the toilet because that's where the water was landing (I guess that would have been good if I wanted to multi-task) and she said the manager had been notified.  What good did that do me?  We won't be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r500118601-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>500118601</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Wonderful hospitality during a recent business trip to Pasadena. Comfortable, clean room and accommodating staff, particularly Erica who was most helpful with recommendations and directions to local restaurants. I'll stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r487754386-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -507,6 +690,51 @@
     <t>Our second time at this hotel.  Same manager.  We travel for work and this is a GREAT place to stay.  The best service.  Beds and room comfy.  Hot breakfast with bacon, sausage or ham; eggs; biscuits and gravy; and waffles.  Other continental breakfast choices including cold cereals, Yoplait yogurt, fruit, milk, juice and coffee.  Best-star rating!  Thank you Manager Mimi for once again making our stay superb!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r473990268-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>473990268</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Business and pleasure combination trip</t>
+  </si>
+  <si>
+    <t>The facility was excellent in all aspects except one.  That being the elevator system.  The single elevator was slow, as is characteristic of hydraulic systems.  There was no "alternative" (stairwell) means to advance to upper floors, except for the required emergency stairwells at the end of each corridor.  Other than this design flaw, the hotel and its amenities were excellent; although, I would have appreciated the outstanding breakfast to have beenavailable till 10:00 am.MoreShow less</t>
+  </si>
+  <si>
+    <t>The facility was excellent in all aspects except one.  That being the elevator system.  The single elevator was slow, as is characteristic of hydraulic systems.  There was no "alternative" (stairwell) means to advance to upper floors, except for the required emergency stairwells at the end of each corridor.  Other than this design flaw, the hotel and its amenities were excellent; although, I would have appreciated the outstanding breakfast to have beenavailable till 10:00 am.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r466395891-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>466395891</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean </t>
+  </si>
+  <si>
+    <t>Found ourselves in Pasadena for a funeral. Chose this hotel based on location. The hotel was clean. The staff was friendly and efficient. The breakfast was acceptable. The air conditioner worked but was a little loud. Overall a pleasant stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Found ourselves in Pasadena for a funeral. Chose this hotel based on location. The hotel was clean. The staff was friendly and efficient. The breakfast was acceptable. The air conditioner worked but was a little loud. Overall a pleasant stay. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r462394672-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -576,6 +804,36 @@
     <t>Upon check in staff was too busy on cell phone.   Did not have the requested room type available on check in.   Told that no clean king rooms available and would have to take room with two beds.  Had to put cell phone down several times to help me.   Reported squeaky doors in room - told nothing could be done Told breakfast ended at 10, but when arrived at 930 everything removed.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r447037057-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>447037057</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Decent hotel right off the hwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We came over Christmas and stayed for couple of days. It's right off the hwy. There is plenty of parking. The staff is nice. Joaquin helped us find an open restaurant on Christmas Eve. The rooms are decent. There is a closet and chest of drawers. There is breakfast in the morning. It's sparse over Christmas Day with a skeleton crew but on a normal day they have eggs, bread, waffles and tea n coffee. They also have self service laundry which is $8 per load. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r442717223-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>442717223</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Great front desk staff, awesome breakfast, and clean comfy beds</t>
+  </si>
+  <si>
+    <t>We wound up staying for five nights after only planning for two. The hotel was able to accommodate our needs--even with needing a handicapped accessible room. The staff were pleasant and accommodating, and our room was comfortable, clean, and maintained throughout our stay. This facility is more expensive than other hotels, but it's worth it. We'll definitely stay here again!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r428942937-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -639,6 +897,51 @@
     <t>My family and I enjoyed our "extended stay" at this location. The staff was very friendly and welcoming. They respected our privacy while providing great service. Breakfast food was very good and the selection was better than I expected. Pool area was set up well and clean.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r414307864-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>414307864</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Anniversary weekend</t>
+  </si>
+  <si>
+    <t>This hotel is in an industrial district so there are a lot of "workers" staying there. The clerk upgraded us to a suite when I told her this was for our anniversary - which was SO nice of her. Room was clean and breakfast was very goodMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Mimi B, General Manager at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is in an industrial district so there are a lot of "workers" staying there. The clerk upgraded us to a suite when I told her this was for our anniversary - which was SO nice of her. Room was clean and breakfast was very goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r381296934-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>381296934</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Family vacation</t>
+  </si>
+  <si>
+    <t>The hotel provided what we needed for this trip. If you want a location with a spectacular view, this is not the one you want. Our accommodations were as expected with the only negative being that we had to ask for additional towels every day of our stay. The staff was friendly and the breakfast was what we expected.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r380742984-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -654,9 +957,6 @@
     <t>Erica at the front desk was awesome.  Very professional, knowledgeable and helpful.  Cleaning ladies were very nice and efficient.  I would recommend and stay at this hotel again.  Reservations, checking in and out was efficient and quick.</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r379250716-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -708,6 +1008,39 @@
     <t>Pasadena North Texas one of my favorite hotels. We are always warmly welcome by th staff and general manager. And what I mean about A WOMANS' TOUCH ......This hotel   with all repect for the general managerwho does an excellent job keeping this hotel VERY CLEAN AND THE ATMOSPHERE SPECIAL; a true sample of excellent hospility. The Tuckers....Give this lady her 5 stars!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r371073312-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>371073312</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Super clean and comfortable hotel.</t>
+  </si>
+  <si>
+    <t>Very clean, spacious and inviting hotel.  The amenities are great and the staff is very friendly.  The hallways were clean and smelled good. I didn't get a chance to eat the breakfast in the morning because I had to leave for work before it was served. I will definitely be back when I am in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r370582324-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>370582324</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Great Place to stop</t>
+  </si>
+  <si>
+    <t>I stayed for a business trip. I encountered one issue with my door lock battery. I was taken care of promptly by the manager, Mimi. Mimi was such a pleasure to talk with and she exceeded my expectations in resolving my issue. I appreciated so much talking with her and learning the security measures in the hotel as I was traveling alone. The staff I spoke with while staying, Mimi, Erica, Shelia and one other girl that I cannot recall her name :/, were all so friendly and helpful with everything. I would stay again for business or leisure.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r359783277-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -774,6 +1107,39 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r340134887-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>340134887</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>clean hotel</t>
+  </si>
+  <si>
+    <t>very nice hotel, good breakfast, nice handicap room/bathroom, near port of houston, friendly staff, well kept up hotel and grounds, not any restaurants within close walking distance, room slightly small for setting up rollaway bed</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r338355848-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>338355848</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Service Below La Quinta Norm</t>
+  </si>
+  <si>
+    <t>There was no maid service on Christmas day. I can live with that, however I think we should a have been told prior to booking. We were not even told at check in. When I went to the front desk to ask about it the staff was rude about it like I should have known then she handed me a flyer.   The landscaping is over grown and needed tending.  The location is good for me so I will try it again but the service was far below what I usually get at La Quinta.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r336501967-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -789,12 +1155,6 @@
     <t>I think that 2 people need to work front desk in the evenings due to so many people checking in the faster it goes the better really should think about that some people hate waiting. The girls in the evening work hard it looks like so when there is 2 its better service. My room was well maintained and excellent front desk people. Just need to improve on that</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r336216113-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -825,7 +1185,40 @@
     <t>We have stayed at La Quinta Hotels for a number of years.  They all have been very clean and well maintained.  They have all welcomed our two dogs who travel with us (in a small car) on all car vacations.   Taking our dogs with us is taking our family with us. We really love La Quinta, and always look first at La Quinta when making reservations!</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r321064990-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>321064990</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>New and Quiet Property</t>
+  </si>
+  <si>
+    <t>This hotel was excellent. If I had any comments to make an improvement would be to provide a guide in the hotel room about local restaurants, as this location does not have easy access to a sit down dinner location.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r313457763-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>313457763</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Great hotel, weird location, no fresh air</t>
+  </si>
+  <si>
+    <t>Everything about this hotel is great inside.  It has some nice greenery around it, too, some swampy grass &amp; some trees.  But the windows in the rooms are sealed.  Everyone should have access to fresh air, if they want it, while they sleep.  Also sealed rooms always stink after a while.  This hotel is new.  There is no substitute for fresh air.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r311833686-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
@@ -843,9 +1236,6 @@
     <t>This was one of the best hotels I have ever been to! The lobby was so colorful and inviting. The room was modern, CLEAN, and very comfortable. My husband and I were quite impressed and will definitely stay here again. The staff was friendly and helpful. GREAT experience!</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r301715307-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -882,6 +1272,39 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r293106315-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>293106315</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>Was a little worried when we checked in and noticed that all of the doors to the hotel were opened, but upon checking I was told that they were doing some remodeling and they were painting the lobby of the hotel.  When we got to the room, I was nice and cool, and the room was extremely large.  Nice to spread out and have some space since we had been on vacation from 5 days and the heat was starting to get to us.  We were told that at 4:30 they have fresh baked cookies for their guests.  They were warm, delicious, and plentiful.  At 6 they had a "happy hour" that consisted of some bottles of beer and a snacks.  This was a pleasant surprise and a great way to relax.  The exercise room had 3 machines and some free weights.  It was a spacious room and I was able to get in some exercise.  The breakfast had a large variety of food and was served in an area that could easily handle a large number of guests.  The staff were all very friendly and helpful. The only downfall is that there was limited number of lunch and dinner options nearby.  It did have the basic, and you could travel a few miles to get more variety.MoreShow less</t>
+  </si>
+  <si>
+    <t>Was a little worried when we checked in and noticed that all of the doors to the hotel were opened, but upon checking I was told that they were doing some remodeling and they were painting the lobby of the hotel.  When we got to the room, I was nice and cool, and the room was extremely large.  Nice to spread out and have some space since we had been on vacation from 5 days and the heat was starting to get to us.  We were told that at 4:30 they have fresh baked cookies for their guests.  They were warm, delicious, and plentiful.  At 6 they had a "happy hour" that consisted of some bottles of beer and a snacks.  This was a pleasant surprise and a great way to relax.  The exercise room had 3 machines and some free weights.  It was a spacious room and I was able to get in some exercise.  The breakfast had a large variety of food and was served in an area that could easily handle a large number of guests.  The staff were all very friendly and helpful. The only downfall is that there was limited number of lunch and dinner options nearby.  It did have the basic, and you could travel a few miles to get more variety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r294294223-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>294294223</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Staff and Hotel!</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the La Quinta Pasadena-North!  Every single staff member was friendly, kind, and helpful.  The hotel is beautiful and well-kept, and there is an outside pool to enjoy as well.  The breakfast was delicious with several choices.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r291327578-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1353,42 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r270216602-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>270216602</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>2 night stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The front desk staff are very nice.  I had a decent breakfast in the morning.  Internet password changes daily.  Room was clean and satisfactory.   Wasn't sure if I got the best room rate.  Road noise from 225 outside my window was noticed.  The coffee bar is kept open 24/7.  </t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r260659002-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>260659002</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Stock Show</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and very friendly.  It is a little drive to where we were going but it was a nice, clean place to stay.  I would definitely stay there again if I need to.  The breakfast was very good with all types of foods to choose from.  They even had a happy hour that was very nice to have and not have to constantly leave to go look for things.  The family really enjoyed the stay there as well as myself.  It was quiet, the beds were nice and clean and the bathrooms were great.  No complaints from the wife.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r258702435-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -945,9 +1404,6 @@
     <t>Could bot get internet access, not even in lobbly due to slow wi-fi.  The clerk even reset not even reset the server and still limited or no wi-fi service.  I could not even get on with my air card.  So why stay at a hotel where you are there for business and can not access wi-fi.</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r259204840-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1437,39 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r253922185-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>253922185</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>LQ Pasadena is just OK</t>
+  </si>
+  <si>
+    <t>Not one of the better hotels but it is newer than the ones in the area.  Bed was good, and the arrangement of the room was nice with a 'wall' far enough out to separate the 'sitting' area which had sofa, chair and table.  only thing - the TV couldn't be seen from the couch so I had to watch on the bed.  If you can choose from the older LQ's and this one in the area, this one is the best choice.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r251737403-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>251737403</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>Business stay in Houston</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for business. It was a bit farther from my business location but was easy to get to.  I was checked-in in under 2 minutes and in my room 1 minute later. Clerks were very courteous. The room was so clean that I wasn't scared to walk on the carpet barefoot.  The bathroom was modern and clean. Bright side breakfast was filling and delicious with a good variety of food. There was courtesy (Free) Bud Light in the evening. I would recommend this hotel.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r240954900-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1521,45 @@
     <t>Pros: new modern hotel, excellent price, cold air conditioner, comfortable mattress, room has refrigerator and microwave, Internet strength is good, breakfast choices included sausage/bacon/eggs (although quality is standard hotel food), rooms are very quiet. Also just a short drive to Houston.Cons: 1 small elevator, location is between the interstate and chemical plants. Must drive for restaurants. Industrial view.If you want the best bang for your bucks, this is the hotel! Worth staying here and driving into Houston!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r228404555-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>228404555</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Loved this place!</t>
+  </si>
+  <si>
+    <t>This place was spotless, friendly, and very nice! When we arrived they had "Happy hour"....sodas, beer and cookies. Breakfast was fabulous! Staff bent over backwards! Housekeeping were spot on! The ONLY drawback is you are in an industrial area, and will have to drive out for a nicer dinner out. BUT there is fast food very nearby.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r226386061-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>226386061</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Flying solo</t>
+  </si>
+  <si>
+    <t>I stayed at this La Quinta 3 nights and was very comfortable.  Being elderly and alone, I never had a moment of concern about my safety. I used a handicapped room and it fit my needs but if you have trouble with getting into a bathtub/shower it would not fit your needs. There were plenty of handrails all around the bathroom and tub but you still have to step up into the tub.  One time the maid skipped doing a minor thing to the bath but when I called the desk clerk someone came immediately and corrected it. Oh yes, check the times breakfast is served. I missed out one day as during the week they stop at 9am and 10am on weekends.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this La Quinta 3 nights and was very comfortable.  Being elderly and alone, I never had a moment of concern about my safety. I used a handicapped room and it fit my needs but if you have trouble with getting into a bathtub/shower it would not fit your needs. There were plenty of handrails all around the bathroom and tub but you still have to step up into the tub.  One time the maid skipped doing a minor thing to the bath but when I called the desk clerk someone came immediately and corrected it. Oh yes, check the times breakfast is served. I missed out one day as during the week they stop at 9am and 10am on weekends.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r220142208-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1047,9 +1575,6 @@
     <t>When my husband asked to get an extra pillow for his back, the girl working had to put her cell phone down to ask him what he needed! He was initially told no, that they do not have extras. However when he walked off and said "I guess you won't be getting a good review." We immediately received a call stating they would bring one up right away.</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r217913550-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1617,36 @@
     <t>After a long road trip, checked in the room only to find the toilet was not cleaned.  They did however give me another room, but I don't know if I will visit La Quinta again unless I'm forced to.  The desk clerk was apologetic and gave me another room without any problems.  Better over site of the cleaning maids needs to be made.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r215655178-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>215655178</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>awesome stay</t>
+  </si>
+  <si>
+    <t>smiles are what I like to see when I go in a hotel, (which they do) friendly staff. breakfast is very good. I asked for a quiet room and I got it! they make sure you are comfortable, that's why I go back every time.  thank you La Quinta!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r216006633-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>216006633</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>It's a nice La Quinta</t>
+  </si>
+  <si>
+    <t>The nice end of the mid-range hotel.  It's what you would expect in a newer La Quinta - clean, comfortable, with a decent breakfast.  It looked/felt like the other LaQuinta's I have stayed in in the past 6 months - nothing remarkable either positive or negative.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r214429891-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1698,39 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r203548759-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>203548759</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Staff was rude</t>
+  </si>
+  <si>
+    <t>Checking was a pain and staff was rude. Very detached and didn't seem like they knew what they were doing. I have stayed here past 3 years, and this is going to be my time to to stay at this particular hotel. WIFI was terrible, could walk across my room with out disconnecting.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Checking was a pain and staff was rude. Very detached and didn't seem like they knew what they were doing. I have stayed here past 3 years, and this is going to be my time to to stay at this particular hotel. WIFI was terrible, could walk across my room with out disconnecting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r196863862-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>196863862</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r191621789-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1785,39 @@
     <t>From the front desk to the housekeeping services,  This La Quinta has it together. Kim at the front desk is A+ and the Manager Mimi is so friendly and nice. We will be going back again for buisnessand look forward to it. If you are in the area this is a must stay place.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r188427218-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>188427218</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>The room was beautiful, clean and loved the high ceilings, felt very private.  When we first arrived during the night, it took us probably at least 45 minutes to find someone to check us in after calling and looking for someone.   With 3 young children traveling as the only adult, and it being after 2a in the morning....  that was a fiasco.  We were positioned at the end of the hall by the back door, but guess what, the back door was broke and not working....  you could go out the door but you could not go into the hotel through the door.  The room was nice and the beds were awesome!  The breakfast the next morning was nice as well.  As we hurriedly tried to get ready, the shower did not work.  The front desk had several people in and out trying to fix it, to no avail.  They offered us to take showers across the hall in another room, propped the door open for us to go in there after they left.  (Not safe at all), and -they must not have small children.  There is no way trying to get ready to go somewhere that I could leave the children in the room by themselves, nor could I take them all with me, against my better judgement, I gave the childen baths and was not able to take a shower myself as I had no other way and...The room was beautiful, clean and loved the high ceilings, felt very private.  When we first arrived during the night, it took us probably at least 45 minutes to find someone to check us in after calling and looking for someone.   With 3 young children traveling as the only adult, and it being after 2a in the morning....  that was a fiasco.  We were positioned at the end of the hall by the back door, but guess what, the back door was broke and not working....  you could go out the door but you could not go into the hotel through the door.  The room was nice and the beds were awesome!  The breakfast the next morning was nice as well.  As we hurriedly tried to get ready, the shower did not work.  The front desk had several people in and out trying to fix it, to no avail.  They offered us to take showers across the hall in another room, propped the door open for us to go in there after they left.  (Not safe at all), and -they must not have small children.  There is no way trying to get ready to go somewhere that I could leave the children in the room by themselves, nor could I take them all with me, against my better judgement, I gave the childen baths and was not able to take a shower myself as I had no other way and was nearly an hour late.  Don't know if I will stay there again....  too many issues when I could go somewhere else.  As a matter of fact, had started to stay at another hotel close by but knew I had always had good experiences at LaQuinta.  Pretty disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>The room was beautiful, clean and loved the high ceilings, felt very private.  When we first arrived during the night, it took us probably at least 45 minutes to find someone to check us in after calling and looking for someone.   With 3 young children traveling as the only adult, and it being after 2a in the morning....  that was a fiasco.  We were positioned at the end of the hall by the back door, but guess what, the back door was broke and not working....  you could go out the door but you could not go into the hotel through the door.  The room was nice and the beds were awesome!  The breakfast the next morning was nice as well.  As we hurriedly tried to get ready, the shower did not work.  The front desk had several people in and out trying to fix it, to no avail.  They offered us to take showers across the hall in another room, propped the door open for us to go in there after they left.  (Not safe at all), and -they must not have small children.  There is no way trying to get ready to go somewhere that I could leave the children in the room by themselves, nor could I take them all with me, against my better judgement, I gave the childen baths and was not able to take a shower myself as I had no other way and...The room was beautiful, clean and loved the high ceilings, felt very private.  When we first arrived during the night, it took us probably at least 45 minutes to find someone to check us in after calling and looking for someone.   With 3 young children traveling as the only adult, and it being after 2a in the morning....  that was a fiasco.  We were positioned at the end of the hall by the back door, but guess what, the back door was broke and not working....  you could go out the door but you could not go into the hotel through the door.  The room was nice and the beds were awesome!  The breakfast the next morning was nice as well.  As we hurriedly tried to get ready, the shower did not work.  The front desk had several people in and out trying to fix it, to no avail.  They offered us to take showers across the hall in another room, propped the door open for us to go in there after they left.  (Not safe at all), and -they must not have small children.  There is no way trying to get ready to go somewhere that I could leave the children in the room by themselves, nor could I take them all with me, against my better judgement, I gave the childen baths and was not able to take a shower myself as I had no other way and was nearly an hour late.  Don't know if I will stay there again....  too many issues when I could go somewhere else.  As a matter of fact, had started to stay at another hotel close by but knew I had always had good experiences at LaQuinta.  Pretty disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r187177882-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>187177882</t>
+  </si>
+  <si>
+    <t>12/09/2013</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Great staff, very friendly and helpful. Room was very clean and comfortable. Pool and spa we're clean and relaxing. Pet friendly with area out back to walk and play. The front area was very clean and neat with plenty of seating to relax and enjoy fresh coffee and hot cookies.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r181571240-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1242,6 +1863,30 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r171730924-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>171730924</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r170309494-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>170309494</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Great Place for a Good Night</t>
+  </si>
+  <si>
+    <t>While it might be a bit worrisome to sleep amidst all this industry, my experience here will keep this La Quinta as a preferred stay in East Houston. The room was clean and comfortable, and staff friendly and efficient.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r167987515-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1287,6 +1932,33 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r162051561-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>162051561</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>I traveled out a little further because it was rated #1 in Pasadena, and it did not disappoint. Kim at the service desk was most helpful and accommodating, recommending a nearby restaurant and also making check-in a breeze. The room and bathroom were clean and very nice, an overall great value. Definitely recommend this place!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r160977145-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>160977145</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r160409351-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1302,9 +1974,6 @@
     <t>Stayed for work there in Houston very clean and friendly staff.Was close to the interstate so it was close to everything.Breakfast was good and cookies at the frontdesk every nite is nice.Will stay again..Thanks for everything.</t>
   </si>
   <si>
-    <t>May 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r153256601-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1341,6 +2010,60 @@
     <t>I brought my son to Houston for the weekend and this is where we stayed. The place is new and very nice. I would definitely come back and stay here again. They have cookies available at the reception desk. They were really good!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r137216770-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>137216770</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>Houston Trip</t>
+  </si>
+  <si>
+    <t>We stayed for 7 day during our little family vacation before schools started back. We were in town to visit the local attractions (Houston city Pass) and a concert.  The hotel is located just outside of the city within 15 minutes from all these great attraction this city has to offer. This hotel is right off the freeway and has very easy access on and off making it easy to get around the local area.  I was impressed with the hotel and will stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Mimi B, Director of Sales at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded January 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2013</t>
+  </si>
+  <si>
+    <t>We stayed for 7 day during our little family vacation before schools started back. We were in town to visit the local attractions (Houston city Pass) and a concert.  The hotel is located just outside of the city within 15 minutes from all these great attraction this city has to offer. This hotel is right off the freeway and has very easy access on and off making it easy to get around the local area.  I was impressed with the hotel and will stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r135112654-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>135112654</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>Two adults,one teen, three children with special needs.</t>
+  </si>
+  <si>
+    <t>Very accomadating of our special needs kiddos. Three days I didnt even wake up when the maid came for linens, towels,etc. which has never happened- im a very light sleeper.  My husband &amp; kids were right there, and explained I never get to sleep in - so that might not sound like much but to an exhausted Momma it was heaven. The maid did everything we asked- didn't make a peep and was very polite. The bed was so comfy I didn't want to get out of it for our vacation!The staff was extremly helpful with meal planning for a family of six. The front desk people know their local venues!! In an industrial side of town, but easy on off freeway access. It is literally in the middle of Houston &amp; Galveston, which was perfect for our stay. Loved the hot breakfast buffet as it really helped to strech our budget. We would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Mimi B, Director of Sales at La Quinta Inn &amp; Suites Pasadena North, responded to this reviewResponded August 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2012</t>
+  </si>
+  <si>
+    <t>Very accomadating of our special needs kiddos. Three days I didnt even wake up when the maid came for linens, towels,etc. which has never happened- im a very light sleeper.  My husband &amp; kids were right there, and explained I never get to sleep in - so that might not sound like much but to an exhausted Momma it was heaven. The maid did everything we asked- didn't make a peep and was very polite. The bed was so comfy I didn't want to get out of it for our vacation!The staff was extremly helpful with meal planning for a family of six. The front desk people know their local venues!! In an industrial side of town, but easy on off freeway access. It is literally in the middle of Houston &amp; Galveston, which was perfect for our stay. Loved the hot breakfast buffet as it really helped to strech our budget. We would stay again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r132997812-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -1402,6 +2125,42 @@
   </si>
   <si>
     <t>I left my iPad (unknowingly) in their conference room and as soon as I called they went looking for it and had the manager ship it to me from a FedEx within an hour. They even called me from the FedEx and gave me the tracking number for my package. Excellent service from employees with integrity!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r130530112-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>130530112</t>
+  </si>
+  <si>
+    <t>05/24/2012</t>
+  </si>
+  <si>
+    <t>Very nice La Quinta.</t>
+  </si>
+  <si>
+    <t>We stay here last night and were very pleased with the property.  The room was spacious and quiet.  We enjoyed a few minutes on TV on the flat screen and ordered in Pizza.  The front desk agent told us to avoid Pizza Hut because one of the last orders arrived 2 hours late and the other did not show up at all. So another night of Domino's.  The business center has 3 computers on one wall of the breakfast room.  They are close together but workable.  One is hooked to the printer.  We never eat breakfast at the hotels so no review on that.  The pool looked inviting if we had time but we never seem to.  Fitness room is better than average.  Overall a nice stay.  The towels are thick and lush and the linens on the bed were crisp.  The only down side is the neighborhood which is very industrial and some so-so houses.  Good restaurants are scarce.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay here last night and were very pleased with the property.  The room was spacious and quiet.  We enjoyed a few minutes on TV on the flat screen and ordered in Pizza.  The front desk agent told us to avoid Pizza Hut because one of the last orders arrived 2 hours late and the other did not show up at all. So another night of Domino's.  The business center has 3 computers on one wall of the breakfast room.  They are close together but workable.  One is hooked to the printer.  We never eat breakfast at the hotels so no review on that.  The pool looked inviting if we had time but we never seem to.  Fitness room is better than average.  Overall a nice stay.  The towels are thick and lush and the linens on the bed were crisp.  The only down side is the neighborhood which is very industrial and some so-so houses.  Good restaurants are scarce.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r127163534-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>127163534</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>A New La Quinta</t>
+  </si>
+  <si>
+    <t>It was a nice, new hotel &amp; we were upgraded to a King Plus Suite.  There were no towell racks in the bathroom.  The service wasn't good.  There was never anyone behind the desk.  The location was not near anything for vacationing.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r125460150-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
@@ -1463,6 +2222,50 @@
   </si>
   <si>
     <t>So my husband and i bought a home near Nasa &amp; while it was being remodeled/painted etc, we needed a place to stay for two nights untill they'ed finished up our home. I deffenetly wanted to stay at the new La Quinta in Pasadena despite there being a "closer" hotel near my home, we insisted to try it out.  As we walked in the hotel the  Decor was amazing/modern/spacious/beutiful. Our room had nice high cealings and it was very clean. The staff was great, helpfull and friendly. Now the BEST part of it all was the breakfast. Waow! they go out alllll the way. My family had a FULL breakfast that morning something that other hotels dont have. Awsome stay, cannot complain one-bit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r116324505-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>116324505</t>
+  </si>
+  <si>
+    <t>08/05/2011</t>
+  </si>
+  <si>
+    <t>So glad we found this one</t>
+  </si>
+  <si>
+    <t>My husband and I stayed in this hotel 2 nights while I had evaluations at MD Anderson. It was our first trip to MD Anderson. There was a convention the same week of my appointments. Everything was booked near the center. We spent hours trying to find a hotel close enough, safe, and affordable. We came across this one which was about 20 minutes from the center. It was new, very clean, quiet, and comfortable. The room was large and roomy. The bathroom was nice and spacious. The staff was very kind and helpful. I even had to fax some medical records from our hometown, and they gladly accommodated us. There were many close restaurant choices. We had no problem navigating to MD Anderson with our GPS. We have had to stay in other hotels since then. One in Louisiana and two in Alabama. Two of them were just gross. The other one was okay. Our stay at the La Quinta in Pasadena spoiled us. I don't know if we'll ever come across another hotel that was so nice and enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>My husband and I stayed in this hotel 2 nights while I had evaluations at MD Anderson. It was our first trip to MD Anderson. There was a convention the same week of my appointments. Everything was booked near the center. We spent hours trying to find a hotel close enough, safe, and affordable. We came across this one which was about 20 minutes from the center. It was new, very clean, quiet, and comfortable. The room was large and roomy. The bathroom was nice and spacious. The staff was very kind and helpful. I even had to fax some medical records from our hometown, and they gladly accommodated us. There were many close restaurant choices. We had no problem navigating to MD Anderson with our GPS. We have had to stay in other hotels since then. One in Louisiana and two in Alabama. Two of them were just gross. The other one was okay. Our stay at the La Quinta in Pasadena spoiled us. I don't know if we'll ever come across another hotel that was so nice and enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r63312253-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>63312253</t>
+  </si>
+  <si>
+    <t>05/05/2010</t>
+  </si>
+  <si>
+    <t>WOW this is really a Comfort Inn</t>
+  </si>
+  <si>
+    <t>Well I was in town for the OTC and me being lazy I thought I would be able to make a reservation at the last minute but that was not the case. I tried to book rooms in Houston but nothing was available, that is when I came across the Comfort Inn Pasadena, TX. Let me tell you as my work pays for all my loddging I dont really stay at Choice im allways at the Hampton Inn or the Marriott's. The moment I pulled in with the comman music in the entrace of the hotel to the deocor of the public space, I was blown away with it all. I would have never thought that the Choice Hotels can produce something like this, it should of had a Hampton or one of the Marriot name on the front.
+I checked in, it was quick and fast, and as i was checking in the front desk clerk was very imformative with the hotel info anf all the places to eat. The room was very clean with great beds, the bathroom had everything that you would want if you had forgotten anything and the room was VERY VERY quite taking into consideration that it was right in front of the highway and packed with refinerys around it. I wake up to a USA Today paper and my invoice under my dorr, so i didn't even have to go to the front...Well I was in town for the OTC and me being lazy I thought I would be able to make a reservation at the last minute but that was not the case. I tried to book rooms in Houston but nothing was available, that is when I came across the Comfort Inn Pasadena, TX. Let me tell you as my work pays for all my loddging I dont really stay at Choice im allways at the Hampton Inn or the Marriott's. The moment I pulled in with the comman music in the entrace of the hotel to the deocor of the public space, I was blown away with it all. I would have never thought that the Choice Hotels can produce something like this, it should of had a Hampton or one of the Marriot name on the front.I checked in, it was quick and fast, and as i was checking in the front desk clerk was very imformative with the hotel info anf all the places to eat. The room was very clean with great beds, the bathroom had everything that you would want if you had forgotten anything and the room was VERY VERY quite taking into consideration that it was right in front of the highway and packed with refinerys around it. I wake up to a USA Today paper and my invoice under my dorr, so i didn't even have to go to the front desk, which is great if you are running late. But in this case I had some time before my flight so i went for breakfast, they had a FULL HOT BREAKFAST, which was the greatest whom the security and the breakfast cook was the same. Very cheerful guy he was and the manager even came to everyone that was eating and greeted us and ask us how our stay was and if there was any improvements that they could make. The guest satisfactory at this hotel is amazing and you can tell that they were all about guest satisfaction. This dosent mean that im going to join up with Choice point sysytem as the manager insisted that there were great benefits because I still wont be staying at choice, but i can tell you if I had to travel between 30-45 mins or if im remotely close to this area I will be staying at the Comfort Inn Pasadena, TX. I had recevied a email from the manager asking if everything was my stay with them and to complete the survay that would be sent from choice, I wouldnt give them anything less than top marks.For everyone travelling in and out of Housotn would highly recommend this hotel even if you have to drive out towards the refinerys well worth the drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>Well I was in town for the OTC and me being lazy I thought I would be able to make a reservation at the last minute but that was not the case. I tried to book rooms in Houston but nothing was available, that is when I came across the Comfort Inn Pasadena, TX. Let me tell you as my work pays for all my loddging I dont really stay at Choice im allways at the Hampton Inn or the Marriott's. The moment I pulled in with the comman music in the entrace of the hotel to the deocor of the public space, I was blown away with it all. I would have never thought that the Choice Hotels can produce something like this, it should of had a Hampton or one of the Marriot name on the front.
+I checked in, it was quick and fast, and as i was checking in the front desk clerk was very imformative with the hotel info anf all the places to eat. The room was very clean with great beds, the bathroom had everything that you would want if you had forgotten anything and the room was VERY VERY quite taking into consideration that it was right in front of the highway and packed with refinerys around it. I wake up to a USA Today paper and my invoice under my dorr, so i didn't even have to go to the front...Well I was in town for the OTC and me being lazy I thought I would be able to make a reservation at the last minute but that was not the case. I tried to book rooms in Houston but nothing was available, that is when I came across the Comfort Inn Pasadena, TX. Let me tell you as my work pays for all my loddging I dont really stay at Choice im allways at the Hampton Inn or the Marriott's. The moment I pulled in with the comman music in the entrace of the hotel to the deocor of the public space, I was blown away with it all. I would have never thought that the Choice Hotels can produce something like this, it should of had a Hampton or one of the Marriot name on the front.I checked in, it was quick and fast, and as i was checking in the front desk clerk was very imformative with the hotel info anf all the places to eat. The room was very clean with great beds, the bathroom had everything that you would want if you had forgotten anything and the room was VERY VERY quite taking into consideration that it was right in front of the highway and packed with refinerys around it. I wake up to a USA Today paper and my invoice under my dorr, so i didn't even have to go to the front desk, which is great if you are running late. But in this case I had some time before my flight so i went for breakfast, they had a FULL HOT BREAKFAST, which was the greatest whom the security and the breakfast cook was the same. Very cheerful guy he was and the manager even came to everyone that was eating and greeted us and ask us how our stay was and if there was any improvements that they could make. The guest satisfactory at this hotel is amazing and you can tell that they were all about guest satisfaction. This dosent mean that im going to join up with Choice point sysytem as the manager insisted that there were great benefits because I still wont be staying at choice, but i can tell you if I had to travel between 30-45 mins or if im remotely close to this area I will be staying at the Comfort Inn Pasadena, TX. I had recevied a email from the manager asking if everything was my stay with them and to complete the survay that would be sent from choice, I wouldnt give them anything less than top marks.For everyone travelling in and out of Housotn would highly recommend this hotel even if you have to drive out towards the refinerys well worth the drive.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d2038687-r61870216-La_Quinta_Inn_Suites_Pasadena_North-Pasadena_Texas.html</t>
@@ -2015,7 +2818,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2024,28 +2827,32 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2061,7 +2868,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2070,28 +2877,28 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
         <v>53</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
@@ -2109,10 +2916,14 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2128,7 +2939,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2137,53 +2948,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>66</v>
-      </c>
-      <c r="X4" t="s">
-        <v>67</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -2199,7 +3006,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2208,53 +3015,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>75</v>
-      </c>
-      <c r="X5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -2270,43 +3073,43 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
         <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -2319,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2341,60 +3144,62 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
         <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -2410,41 +3215,39 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>101</v>
-      </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
       </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="n">
         <v>5</v>
       </c>
@@ -2453,19 +3256,19 @@
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -2481,7 +3284,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2490,45 +3293,53 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
       <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2544,41 +3355,47 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>111</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>116</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -2586,10 +3403,14 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -2605,38 +3426,42 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
         <v>118</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>119</v>
-      </c>
-      <c r="J11" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>123</v>
       </c>
       <c r="O11" t="s">
         <v>53</v>
       </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="n">
         <v>5</v>
       </c>
@@ -2648,13 +3473,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2670,62 +3495,62 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
         <v>127</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>128</v>
       </c>
-      <c r="J12" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>123</v>
-      </c>
       <c r="O12" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -2741,7 +3566,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2750,31 +3575,33 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" t="s">
-        <v>138</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
       </c>
-      <c r="P13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="n">
         <v>5</v>
       </c>
@@ -2785,10 +3612,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -2804,7 +3635,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2813,35 +3644,37 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K14" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2851,13 +3684,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="X14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Y14" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -2873,41 +3706,43 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
         <v>146</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>147</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>148</v>
-      </c>
-      <c r="K15" t="s">
-        <v>149</v>
-      </c>
-      <c r="L15" t="s">
-        <v>150</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>151</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2915,14 +3750,10 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>152</v>
-      </c>
-      <c r="X15" t="s">
-        <v>153</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
@@ -2938,7 +3769,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2947,38 +3778,32 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
       </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2986,14 +3811,10 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>160</v>
-      </c>
-      <c r="X16" t="s">
-        <v>161</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
@@ -3009,7 +3830,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3018,25 +3839,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3057,14 +3878,10 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>169</v>
-      </c>
-      <c r="X17" t="s">
-        <v>170</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -3080,7 +3897,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3089,25 +3906,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3116,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -3129,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
+        <v>167</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y18" t="s">
         <v>169</v>
-      </c>
-      <c r="X18" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -3151,7 +3968,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3160,53 +3977,47 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y19" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -3222,7 +4033,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3231,39 +4042,53 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>192</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" t="s">
+        <v>183</v>
+      </c>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
@@ -3279,7 +4104,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3288,25 +4113,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3326,7 +4151,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
@@ -3342,7 +4167,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3351,53 +4176,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>92</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>204</v>
-      </c>
-      <c r="X22" t="s">
-        <v>205</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23">
@@ -3413,7 +4224,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3422,49 +4233,39 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="O23" t="s">
-        <v>92</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -3480,7 +4281,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3489,28 +4290,26 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
-      </c>
-      <c r="K24" t="s">
-        <v>216</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="O24" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
         <v>5</v>
@@ -3523,19 +4322,19 @@
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="X24" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -3551,7 +4350,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3560,29 +4359,27 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O25" t="s">
-        <v>92</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="n">
         <v>5</v>
@@ -3596,13 +4393,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="X25" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26">
@@ -3618,7 +4415,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3627,32 +4424,38 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
       </c>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3661,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="X26" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="Y26" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
@@ -3683,7 +4486,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3692,47 +4495,53 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="X27" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
@@ -3748,7 +4557,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3757,49 +4566,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
       </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>236</v>
+      </c>
+      <c r="X28" t="s">
+        <v>237</v>
+      </c>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
@@ -3815,7 +4618,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3824,45 +4627,53 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>258</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>245</v>
+      </c>
+      <c r="X29" t="s">
+        <v>246</v>
+      </c>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
@@ -3878,7 +4689,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3887,49 +4698,53 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>245</v>
+      </c>
+      <c r="X30" t="s">
+        <v>246</v>
+      </c>
       <c r="Y30" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31">
@@ -3945,7 +4760,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3954,49 +4769,53 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="J31" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s">
-        <v>269</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>245</v>
+      </c>
+      <c r="X31" t="s">
+        <v>246</v>
+      </c>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
@@ -4012,7 +4831,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4021,45 +4840,39 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J32" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
@@ -4075,7 +4888,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4084,49 +4897,39 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="J33" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="O33" t="s">
-        <v>92</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
@@ -4142,7 +4945,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4151,49 +4954,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J34" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="O34" t="s">
-        <v>192</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>4</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
@@ -4209,7 +5002,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4218,35 +5011,31 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="J35" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s">
-        <v>269</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>5</v>
       </c>
@@ -4260,7 +5049,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
@@ -4276,7 +5065,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4285,39 +5074,53 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J36" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O36" t="s">
-        <v>269</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>290</v>
+      </c>
+      <c r="X36" t="s">
+        <v>291</v>
+      </c>
       <c r="Y36" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
@@ -4333,52 +5136,52 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>294</v>
+      </c>
+      <c r="J37" t="s">
+        <v>295</v>
+      </c>
+      <c r="K37" t="s">
+        <v>296</v>
+      </c>
+      <c r="L37" t="s">
+        <v>297</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>289</v>
+      </c>
+      <c r="O37" t="s">
         <v>298</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
-        <v>299</v>
-      </c>
-      <c r="J37" t="s">
-        <v>300</v>
-      </c>
-      <c r="K37" t="s">
-        <v>301</v>
-      </c>
-      <c r="L37" t="s">
-        <v>302</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" t="s">
-        <v>303</v>
-      </c>
-      <c r="O37" t="s">
-        <v>53</v>
-      </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>299</v>
+      </c>
+      <c r="X37" t="s">
+        <v>300</v>
+      </c>
       <c r="Y37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
@@ -4394,31 +5197,31 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" t="s">
         <v>304</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>305</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>306</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
         <v>307</v>
-      </c>
-      <c r="L38" t="s">
-        <v>308</v>
-      </c>
-      <c r="M38" t="n">
-        <v>2</v>
-      </c>
-      <c r="N38" t="s">
-        <v>309</v>
       </c>
       <c r="O38" t="s">
         <v>53</v>
@@ -4427,17 +5230,17 @@
         <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
         <v>3</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4445,7 +5248,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39">
@@ -4461,37 +5264,37 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>309</v>
+      </c>
+      <c r="J39" t="s">
         <v>310</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>311</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>312</v>
       </c>
-      <c r="K39" t="s">
-        <v>313</v>
-      </c>
-      <c r="L39" t="s">
-        <v>314</v>
-      </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
         <v>5</v>
@@ -4512,7 +5315,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
@@ -4528,40 +5331,46 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>314</v>
+      </c>
+      <c r="J40" t="s">
         <v>315</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>316</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>317</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
         <v>318</v>
       </c>
-      <c r="L40" t="s">
-        <v>319</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4</v>
-      </c>
-      <c r="N40" t="s">
-        <v>320</v>
-      </c>
       <c r="O40" t="s">
-        <v>269</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -4570,10 +5379,14 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>319</v>
+      </c>
+      <c r="X40" t="s">
+        <v>320</v>
+      </c>
       <c r="Y40" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41">
@@ -4589,7 +5402,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4598,39 +5411,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K41" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
       </c>
-      <c r="P41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>327</v>
+      </c>
+      <c r="X41" t="s">
+        <v>328</v>
+      </c>
       <c r="Y41" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
@@ -4646,7 +5469,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4655,37 +5478,37 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J42" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="O42" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
@@ -4697,7 +5520,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
@@ -4713,7 +5536,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4722,31 +5545,35 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J43" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
       <c r="Q43" t="n">
         <v>5</v>
       </c>
-      <c r="R43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
       <c r="S43" t="n">
         <v>5</v>
       </c>
@@ -4760,7 +5587,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
@@ -4776,7 +5603,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4785,49 +5612,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="J44" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O44" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>347</v>
+      </c>
+      <c r="X44" t="s">
+        <v>348</v>
+      </c>
       <c r="Y44" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45">
@@ -4843,7 +5668,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4852,49 +5677,47 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="J45" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="O45" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
       </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>347</v>
+      </c>
+      <c r="X45" t="s">
+        <v>348</v>
+      </c>
       <c r="Y45" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46">
@@ -4910,7 +5733,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4919,39 +5742,49 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="J46" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="K46" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>362</v>
+      </c>
+      <c r="O46" t="s">
+        <v>70</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>355</v>
-      </c>
-      <c r="X46" t="s">
-        <v>356</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47">
@@ -4967,7 +5800,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4976,28 +5809,28 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J47" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K47" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L47" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O47" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
         <v>4</v>
@@ -5006,11 +5839,11 @@
         <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -5018,7 +5851,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48">
@@ -5034,7 +5867,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5043,41 +5876,41 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="J48" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K48" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5085,7 +5918,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49">
@@ -5101,7 +5934,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5110,41 +5943,37 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="J49" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K49" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s">
+        <v>378</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
         <v>373</v>
       </c>
-      <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>374</v>
-      </c>
       <c r="O49" t="s">
-        <v>92</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5152,7 +5981,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50">
@@ -5168,7 +5997,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5177,41 +6006,41 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J50" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K50" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="O50" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5219,7 +6048,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51">
@@ -5235,7 +6064,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5244,28 +6073,28 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J51" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K51" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="O51" t="s">
-        <v>92</v>
+        <v>298</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
         <v>5</v>
@@ -5278,7 +6107,7 @@
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5286,7 +6115,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52">
@@ -5302,7 +6131,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5311,25 +6140,25 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J52" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5353,7 +6182,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53">
@@ -5369,7 +6198,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5378,33 +6207,37 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J53" t="s">
-        <v>395</v>
-      </c>
-      <c r="K53" t="s"/>
-      <c r="L53" t="s"/>
+        <v>397</v>
+      </c>
+      <c r="K53" t="s">
+        <v>398</v>
+      </c>
+      <c r="L53" t="s">
+        <v>399</v>
+      </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="O53" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
@@ -5415,7 +6248,9 @@
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
+      <c r="Y53" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5430,7 +6265,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5439,38 +6274,34 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="J54" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K54" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L54" t="s">
+        <v>405</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
         <v>400</v>
       </c>
-      <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="s">
-        <v>401</v>
-      </c>
       <c r="O54" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q54" t="s"/>
       <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
         <v>5</v>
@@ -5481,7 +6312,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55">
@@ -5497,7 +6328,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5506,25 +6337,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="J55" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K55" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="O55" t="s">
-        <v>269</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5533,7 +6364,7 @@
         <v>5</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -5548,7 +6379,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56">
@@ -5564,7 +6395,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5573,37 +6404,41 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="J56" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K56" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
-      </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>417</v>
+      </c>
+      <c r="O56" t="s">
+        <v>278</v>
+      </c>
       <c r="P56" t="n">
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5611,7 +6446,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57">
@@ -5627,7 +6462,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5636,35 +6471,31 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J57" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K57" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L57" t="s">
+        <v>422</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
         <v>417</v>
       </c>
-      <c r="M57" t="n">
-        <v>5</v>
-      </c>
-      <c r="N57" t="s">
-        <v>418</v>
-      </c>
       <c r="O57" t="s">
-        <v>92</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
       <c r="Q57" t="n">
         <v>5</v>
       </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
+      <c r="R57" t="s"/>
       <c r="S57" t="n">
         <v>5</v>
       </c>
@@ -5678,7 +6509,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58">
@@ -5694,7 +6525,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5703,18 +6534,22 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="J58" t="s">
-        <v>421</v>
-      </c>
-      <c r="K58" t="s"/>
-      <c r="L58" t="s"/>
+        <v>426</v>
+      </c>
+      <c r="K58" t="s">
+        <v>427</v>
+      </c>
+      <c r="L58" t="s">
+        <v>428</v>
+      </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="O58" t="s">
         <v>53</v>
@@ -5740,7 +6575,9 @@
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
+      <c r="Y58" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5755,7 +6592,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5764,25 +6601,25 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="J59" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K59" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L59" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5791,7 +6628,7 @@
         <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -5806,7 +6643,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60">
@@ -5822,7 +6659,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5831,49 +6668,39 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="J60" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K60" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L60" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="O60" t="s">
-        <v>92</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>4</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>4</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61">
@@ -5889,7 +6716,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5898,37 +6725,35 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="J61" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K61" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L61" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
-      </c>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>444</v>
+      </c>
+      <c r="O61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P61" t="s"/>
       <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -5936,7 +6761,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62">
@@ -5952,7 +6777,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5961,51 +6786,39 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="J62" t="s">
-        <v>443</v>
-      </c>
-      <c r="K62" t="s"/>
+        <v>447</v>
+      </c>
+      <c r="K62" t="s">
+        <v>448</v>
+      </c>
       <c r="L62" t="s">
-        <v>90</v>
+        <v>449</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s">
-        <v>445</v>
-      </c>
-      <c r="X62" t="s">
-        <v>446</v>
-      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>95</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63">
@@ -6021,7 +6834,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6030,25 +6843,25 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="J63" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K63" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L63" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="O63" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6069,14 +6882,10 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s">
-        <v>452</v>
-      </c>
-      <c r="X63" t="s">
-        <v>453</v>
-      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64">
@@ -6092,7 +6901,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6101,51 +6910,47 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
+        <v>458</v>
+      </c>
+      <c r="J64" t="s">
+        <v>459</v>
+      </c>
+      <c r="K64" t="s">
+        <v>460</v>
+      </c>
+      <c r="L64" t="s">
+        <v>461</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
         <v>456</v>
       </c>
-      <c r="J64" t="s">
-        <v>457</v>
-      </c>
-      <c r="K64" t="s">
-        <v>458</v>
-      </c>
-      <c r="L64" t="s">
-        <v>459</v>
-      </c>
-      <c r="M64" t="n">
-        <v>5</v>
-      </c>
-      <c r="N64" t="s">
-        <v>460</v>
-      </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q64" t="n">
         <v>5</v>
       </c>
       <c r="R64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
-        <v>452</v>
-      </c>
-      <c r="X64" t="s">
-        <v>453</v>
-      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
       <c r="Y64" t="s">
         <v>461</v>
       </c>
@@ -6184,25 +6989,29 @@
         <v>466</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
-      </c>
-      <c r="N65" t="s"/>
-      <c r="O65" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>456</v>
+      </c>
+      <c r="O65" t="s">
+        <v>166</v>
+      </c>
       <c r="P65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -6253,23 +7062,17 @@
         <v>472</v>
       </c>
       <c r="O66" t="s">
-        <v>192</v>
-      </c>
-      <c r="P66" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>5</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
       <c r="S66" t="n">
         <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -6277,7 +7080,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67">
@@ -6293,46 +7096,50 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
+        <v>473</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
         <v>474</v>
       </c>
-      <c r="G67" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" t="s">
-        <v>47</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>475</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>476</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>477</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
         <v>478</v>
       </c>
-      <c r="M67" t="n">
-        <v>5</v>
-      </c>
-      <c r="N67" t="s">
-        <v>479</v>
-      </c>
       <c r="O67" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P67" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q67" t="s"/>
-      <c r="R67" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
       <c r="S67" t="n">
         <v>5</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6340,7 +7147,7 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68">
@@ -6356,34 +7163,34 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
+        <v>479</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>480</v>
+      </c>
+      <c r="J68" t="s">
         <v>481</v>
       </c>
-      <c r="G68" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="K68" t="s">
         <v>482</v>
       </c>
-      <c r="J68" t="s">
+      <c r="L68" t="s">
         <v>483</v>
       </c>
-      <c r="K68" t="s">
-        <v>484</v>
-      </c>
-      <c r="L68" t="s">
-        <v>485</v>
-      </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6392,7 +7199,7 @@
         <v>5</v>
       </c>
       <c r="R68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S68" t="n">
         <v>5</v>
@@ -6407,7 +7214,3029 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>484</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
         <v>485</v>
+      </c>
+      <c r="J69" t="s">
+        <v>486</v>
+      </c>
+      <c r="K69" t="s">
+        <v>487</v>
+      </c>
+      <c r="L69" t="s">
+        <v>488</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>489</v>
+      </c>
+      <c r="O69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>491</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>492</v>
+      </c>
+      <c r="J70" t="s">
+        <v>493</v>
+      </c>
+      <c r="K70" t="s">
+        <v>494</v>
+      </c>
+      <c r="L70" t="s">
+        <v>495</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>489</v>
+      </c>
+      <c r="O70" t="s">
+        <v>278</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>496</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>497</v>
+      </c>
+      <c r="J71" t="s">
+        <v>498</v>
+      </c>
+      <c r="K71" t="s">
+        <v>499</v>
+      </c>
+      <c r="L71" t="s">
+        <v>500</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>489</v>
+      </c>
+      <c r="O71" t="s">
+        <v>70</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>501</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>502</v>
+      </c>
+      <c r="J72" t="s">
+        <v>503</v>
+      </c>
+      <c r="K72" t="s">
+        <v>504</v>
+      </c>
+      <c r="L72" t="s">
+        <v>505</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>506</v>
+      </c>
+      <c r="O72" t="s">
+        <v>70</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>507</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>508</v>
+      </c>
+      <c r="J73" t="s">
+        <v>509</v>
+      </c>
+      <c r="K73" t="s">
+        <v>510</v>
+      </c>
+      <c r="L73" t="s">
+        <v>511</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>512</v>
+      </c>
+      <c r="O73" t="s">
+        <v>166</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>514</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>515</v>
+      </c>
+      <c r="J74" t="s">
+        <v>516</v>
+      </c>
+      <c r="K74" t="s">
+        <v>517</v>
+      </c>
+      <c r="L74" t="s">
+        <v>518</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>512</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>519</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>520</v>
+      </c>
+      <c r="J75" t="s">
+        <v>521</v>
+      </c>
+      <c r="K75" t="s">
+        <v>522</v>
+      </c>
+      <c r="L75" t="s">
+        <v>523</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>524</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>525</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>526</v>
+      </c>
+      <c r="J76" t="s">
+        <v>527</v>
+      </c>
+      <c r="K76" t="s">
+        <v>528</v>
+      </c>
+      <c r="L76" t="s">
+        <v>529</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>530</v>
+      </c>
+      <c r="X76" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>533</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>534</v>
+      </c>
+      <c r="J77" t="s">
+        <v>535</v>
+      </c>
+      <c r="K77" t="s">
+        <v>536</v>
+      </c>
+      <c r="L77" t="s">
+        <v>537</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>524</v>
+      </c>
+      <c r="O77" t="s">
+        <v>298</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>538</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>539</v>
+      </c>
+      <c r="J78" t="s">
+        <v>540</v>
+      </c>
+      <c r="K78" t="s">
+        <v>541</v>
+      </c>
+      <c r="L78" t="s">
+        <v>542</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>524</v>
+      </c>
+      <c r="O78" t="s">
+        <v>70</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>543</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>544</v>
+      </c>
+      <c r="J79" t="s">
+        <v>545</v>
+      </c>
+      <c r="K79" t="s">
+        <v>546</v>
+      </c>
+      <c r="L79" t="s">
+        <v>547</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>524</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>548</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>549</v>
+      </c>
+      <c r="J80" t="s">
+        <v>550</v>
+      </c>
+      <c r="K80" t="s">
+        <v>551</v>
+      </c>
+      <c r="L80" t="s">
+        <v>552</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>524</v>
+      </c>
+      <c r="O80" t="s">
+        <v>70</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>554</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>555</v>
+      </c>
+      <c r="J81" t="s">
+        <v>556</v>
+      </c>
+      <c r="K81" t="s">
+        <v>557</v>
+      </c>
+      <c r="L81" t="s">
+        <v>558</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>559</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>560</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>561</v>
+      </c>
+      <c r="J82" t="s">
+        <v>562</v>
+      </c>
+      <c r="K82" t="s">
+        <v>563</v>
+      </c>
+      <c r="L82" t="s">
+        <v>564</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>565</v>
+      </c>
+      <c r="O82" t="s">
+        <v>278</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>530</v>
+      </c>
+      <c r="X82" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>567</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>568</v>
+      </c>
+      <c r="J83" t="s">
+        <v>569</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>570</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>571</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>572</v>
+      </c>
+      <c r="J84" t="s">
+        <v>573</v>
+      </c>
+      <c r="K84" t="s">
+        <v>574</v>
+      </c>
+      <c r="L84" t="s">
+        <v>575</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>576</v>
+      </c>
+      <c r="O84" t="s">
+        <v>166</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>577</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>578</v>
+      </c>
+      <c r="J85" t="s">
+        <v>579</v>
+      </c>
+      <c r="K85" t="s">
+        <v>580</v>
+      </c>
+      <c r="L85" t="s">
+        <v>581</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>582</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>584</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>585</v>
+      </c>
+      <c r="J86" t="s">
+        <v>586</v>
+      </c>
+      <c r="K86" t="s">
+        <v>587</v>
+      </c>
+      <c r="L86" t="s">
+        <v>588</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>576</v>
+      </c>
+      <c r="O86" t="s">
+        <v>70</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>589</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>590</v>
+      </c>
+      <c r="J87" t="s">
+        <v>591</v>
+      </c>
+      <c r="K87" t="s">
+        <v>574</v>
+      </c>
+      <c r="L87" t="s">
+        <v>592</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>593</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>595</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>596</v>
+      </c>
+      <c r="J88" t="s">
+        <v>597</v>
+      </c>
+      <c r="K88" t="s">
+        <v>598</v>
+      </c>
+      <c r="L88" t="s">
+        <v>599</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>582</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>600</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>601</v>
+      </c>
+      <c r="J89" t="s">
+        <v>602</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>582</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>603</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>604</v>
+      </c>
+      <c r="J90" t="s">
+        <v>605</v>
+      </c>
+      <c r="K90" t="s">
+        <v>606</v>
+      </c>
+      <c r="L90" t="s">
+        <v>607</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>608</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>609</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>610</v>
+      </c>
+      <c r="J91" t="s">
+        <v>611</v>
+      </c>
+      <c r="K91" t="s">
+        <v>612</v>
+      </c>
+      <c r="L91" t="s">
+        <v>613</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>614</v>
+      </c>
+      <c r="O91" t="s">
+        <v>298</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>615</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>616</v>
+      </c>
+      <c r="J92" t="s">
+        <v>617</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>614</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>618</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>619</v>
+      </c>
+      <c r="J93" t="s">
+        <v>620</v>
+      </c>
+      <c r="K93" t="s">
+        <v>621</v>
+      </c>
+      <c r="L93" t="s">
+        <v>622</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>623</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>624</v>
+      </c>
+      <c r="J94" t="s">
+        <v>625</v>
+      </c>
+      <c r="K94" t="s">
+        <v>626</v>
+      </c>
+      <c r="L94" t="s">
+        <v>627</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>628</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>629</v>
+      </c>
+      <c r="J95" t="s">
+        <v>630</v>
+      </c>
+      <c r="K95" t="s">
+        <v>631</v>
+      </c>
+      <c r="L95" t="s">
+        <v>632</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>633</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>634</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>635</v>
+      </c>
+      <c r="J96" t="s">
+        <v>636</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>637</v>
+      </c>
+      <c r="O96" t="s">
+        <v>70</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>638</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>639</v>
+      </c>
+      <c r="J97" t="s">
+        <v>640</v>
+      </c>
+      <c r="K97" t="s">
+        <v>641</v>
+      </c>
+      <c r="L97" t="s">
+        <v>642</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>643</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>644</v>
+      </c>
+      <c r="J98" t="s">
+        <v>645</v>
+      </c>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s"/>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>646</v>
+      </c>
+      <c r="O98" t="s">
+        <v>70</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>647</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>648</v>
+      </c>
+      <c r="J99" t="s">
+        <v>649</v>
+      </c>
+      <c r="K99" t="s">
+        <v>650</v>
+      </c>
+      <c r="L99" t="s">
+        <v>651</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>646</v>
+      </c>
+      <c r="O99" t="s">
+        <v>70</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>652</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>653</v>
+      </c>
+      <c r="J100" t="s">
+        <v>654</v>
+      </c>
+      <c r="K100" t="s">
+        <v>655</v>
+      </c>
+      <c r="L100" t="s">
+        <v>656</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>657</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>659</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>660</v>
+      </c>
+      <c r="J101" t="s">
+        <v>661</v>
+      </c>
+      <c r="K101" t="s">
+        <v>662</v>
+      </c>
+      <c r="L101" t="s">
+        <v>663</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>664</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>665</v>
+      </c>
+      <c r="J102" t="s">
+        <v>666</v>
+      </c>
+      <c r="K102" t="s">
+        <v>667</v>
+      </c>
+      <c r="L102" t="s">
+        <v>668</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>669</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>670</v>
+      </c>
+      <c r="X102" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>673</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>674</v>
+      </c>
+      <c r="J103" t="s">
+        <v>675</v>
+      </c>
+      <c r="K103" t="s">
+        <v>676</v>
+      </c>
+      <c r="L103" t="s">
+        <v>677</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>678</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>679</v>
+      </c>
+      <c r="X103" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>682</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>683</v>
+      </c>
+      <c r="J104" t="s">
+        <v>684</v>
+      </c>
+      <c r="K104" t="s"/>
+      <c r="L104" t="s">
+        <v>118</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>685</v>
+      </c>
+      <c r="O104" t="s">
+        <v>70</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>686</v>
+      </c>
+      <c r="X104" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>688</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>689</v>
+      </c>
+      <c r="J105" t="s">
+        <v>690</v>
+      </c>
+      <c r="K105" t="s">
+        <v>691</v>
+      </c>
+      <c r="L105" t="s">
+        <v>692</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>685</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>693</v>
+      </c>
+      <c r="X105" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>696</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>697</v>
+      </c>
+      <c r="J106" t="s">
+        <v>698</v>
+      </c>
+      <c r="K106" t="s">
+        <v>699</v>
+      </c>
+      <c r="L106" t="s">
+        <v>700</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>701</v>
+      </c>
+      <c r="O106" t="s">
+        <v>70</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>693</v>
+      </c>
+      <c r="X106" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>703</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>704</v>
+      </c>
+      <c r="J107" t="s">
+        <v>705</v>
+      </c>
+      <c r="K107" t="s">
+        <v>706</v>
+      </c>
+      <c r="L107" t="s">
+        <v>707</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>701</v>
+      </c>
+      <c r="O107" t="s">
+        <v>70</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>709</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>710</v>
+      </c>
+      <c r="J108" t="s">
+        <v>711</v>
+      </c>
+      <c r="K108" t="s">
+        <v>712</v>
+      </c>
+      <c r="L108" t="s">
+        <v>713</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>714</v>
+      </c>
+      <c r="O108" t="s">
+        <v>298</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>715</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>716</v>
+      </c>
+      <c r="J109" t="s">
+        <v>717</v>
+      </c>
+      <c r="K109" t="s">
+        <v>718</v>
+      </c>
+      <c r="L109" t="s">
+        <v>719</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>720</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>721</v>
+      </c>
+      <c r="J110" t="s">
+        <v>722</v>
+      </c>
+      <c r="K110" t="s">
+        <v>723</v>
+      </c>
+      <c r="L110" t="s">
+        <v>724</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>725</v>
+      </c>
+      <c r="O110" t="s">
+        <v>278</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>727</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>728</v>
+      </c>
+      <c r="J111" t="s">
+        <v>729</v>
+      </c>
+      <c r="K111" t="s">
+        <v>730</v>
+      </c>
+      <c r="L111" t="s">
+        <v>731</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>732</v>
+      </c>
+      <c r="O111" t="s">
+        <v>53</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>734</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>735</v>
+      </c>
+      <c r="J112" t="s">
+        <v>736</v>
+      </c>
+      <c r="K112" t="s">
+        <v>737</v>
+      </c>
+      <c r="L112" t="s">
+        <v>738</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>739</v>
+      </c>
+      <c r="O112" t="s">
+        <v>298</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>741</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>742</v>
+      </c>
+      <c r="J113" t="s">
+        <v>743</v>
+      </c>
+      <c r="K113" t="s">
+        <v>744</v>
+      </c>
+      <c r="L113" t="s">
+        <v>745</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>746</v>
+      </c>
+      <c r="O113" t="s">
+        <v>70</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>59811</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>748</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>749</v>
+      </c>
+      <c r="J114" t="s">
+        <v>750</v>
+      </c>
+      <c r="K114" t="s">
+        <v>751</v>
+      </c>
+      <c r="L114" t="s">
+        <v>752</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>753</v>
+      </c>
+      <c r="O114" t="s">
+        <v>70</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>
